--- a/final_df.xlsx
+++ b/final_df.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="33">
   <si>
     <t>Day Index</t>
+  </si>
+  <si>
+    <t>YearMonth</t>
+  </si>
+  <si>
+    <t>MonthName</t>
+  </si>
+  <si>
+    <t>DayOfWeek</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -27,15 +36,93 @@
   <si>
     <t>Impressions</t>
   </si>
+  <si>
+    <t>imputed_Quantity</t>
+  </si>
+  <si>
+    <t>log_Quantity</t>
+  </si>
+  <si>
+    <t>log_Clicks</t>
+  </si>
+  <si>
+    <t>log_Impressions</t>
+  </si>
+  <si>
+    <t>Clicks_stationary</t>
+  </si>
+  <si>
+    <t>2021-12</t>
+  </si>
+  <si>
+    <t>2022-01</t>
+  </si>
+  <si>
+    <t>2022-02</t>
+  </si>
+  <si>
+    <t>2022-03</t>
+  </si>
+  <si>
+    <t>2022-04</t>
+  </si>
+  <si>
+    <t>2022-05</t>
+  </si>
+  <si>
+    <t>2022-06</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,15 +133,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -75,61 +157,35 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -138,10 +194,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -179,71 +235,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -267,53 +321,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -323,7 +378,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -332,7 +387,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -341,7 +396,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -349,10 +404,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -381,7 +436,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -394,12 +449,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -417,3002 +473,8102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D213"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L213"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
         <v>44531</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
         <v>14</v>
       </c>
-      <c r="C2" s="4">
+      <c r="F2">
         <v>445</v>
       </c>
-      <c r="D2" s="4">
+      <c r="G2">
         <v>620</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3">
+      <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>2.70805020110221</v>
+      </c>
+      <c r="J2">
+        <v>6.100318952020064</v>
+      </c>
+      <c r="K2">
+        <v>6.431331081933479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2">
         <v>44532</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="F3">
         <v>433</v>
       </c>
-      <c r="D3" s="4">
+      <c r="G3">
         <v>890</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>2.397895272798371</v>
+      </c>
+      <c r="J3">
+        <v>6.073044534100405</v>
+      </c>
+      <c r="K3">
+        <v>6.792344427470809</v>
+      </c>
+      <c r="L3">
+        <v>-0.2863710630441751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2">
         <v>44533</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
         <v>13</v>
       </c>
-      <c r="C4" s="4">
+      <c r="F4">
         <v>424</v>
       </c>
-      <c r="D4" s="4">
+      <c r="G4">
         <v>851</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>2.639057329615258</v>
+      </c>
+      <c r="J4">
+        <v>6.052089168924417</v>
+      </c>
+      <c r="K4">
+        <v>6.747586526829315</v>
+      </c>
+      <c r="L4">
+        <v>-0.2173917647108112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2">
         <v>44534</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
         <v>22</v>
       </c>
-      <c r="C5" s="4">
+      <c r="F5">
         <v>427</v>
       </c>
-      <c r="D5" s="4">
+      <c r="G5">
         <v>881</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3">
+      <c r="H5">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>3.13549421592915</v>
+      </c>
+      <c r="J5">
+        <v>6.059123195581797</v>
+      </c>
+      <c r="K5">
+        <v>6.782192056006791</v>
+      </c>
+      <c r="L5">
+        <v>0.0727180377978236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2">
         <v>44535</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6">
         <v>33</v>
       </c>
-      <c r="C6" s="4">
+      <c r="F6">
         <v>451</v>
       </c>
-      <c r="D6" s="4">
+      <c r="G6">
         <v>678</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3">
+      <c r="H6">
+        <v>30.66999999999999</v>
+      </c>
+      <c r="I6">
+        <v>3.526360524616162</v>
+      </c>
+      <c r="J6">
+        <v>6.113682179832232</v>
+      </c>
+      <c r="K6">
+        <v>6.520621127558696</v>
+      </c>
+      <c r="L6">
+        <v>0.5727822618234768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2">
         <v>44536</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
         <v>429</v>
       </c>
-      <c r="D7" s="4">
+      <c r="G7">
         <v>995</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3">
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>2.564949357461537</v>
+      </c>
+      <c r="J7">
+        <v>6.063785208687608</v>
+      </c>
+      <c r="K7">
+        <v>6.903747257584598</v>
+      </c>
+      <c r="L7">
+        <v>-0.5244454043873219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2">
         <v>44537</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
         <v>29</v>
       </c>
-      <c r="C8" s="4">
+      <c r="F8">
         <v>444</v>
       </c>
-      <c r="D8" s="4">
+      <c r="G8">
         <v>910</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3">
+      <c r="H8">
+        <v>29</v>
+      </c>
+      <c r="I8">
+        <v>3.401197381662155</v>
+      </c>
+      <c r="J8">
+        <v>6.09807428216624</v>
+      </c>
+      <c r="K8">
+        <v>6.814542897259958</v>
+      </c>
+      <c r="L8">
+        <v>0.3589923284974965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2">
         <v>44538</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
         <v>24</v>
       </c>
-      <c r="C9" s="4">
+      <c r="F9">
         <v>431</v>
       </c>
-      <c r="D9" s="4">
+      <c r="G9">
         <v>867</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3">
+      <c r="H9">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>3.218875824868201</v>
+      </c>
+      <c r="J9">
+        <v>6.068425588244111</v>
+      </c>
+      <c r="K9">
+        <v>6.766191714660351</v>
+      </c>
+      <c r="L9">
+        <v>-0.310768013678782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2">
         <v>44539</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
         <v>23</v>
       </c>
-      <c r="C10" s="4">
+      <c r="F10">
         <v>456</v>
       </c>
-      <c r="D10" s="4">
+      <c r="G10">
         <v>1128</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3">
+      <c r="H10">
+        <v>23</v>
+      </c>
+      <c r="I10">
+        <v>3.178053830347946</v>
+      </c>
+      <c r="J10">
+        <v>6.124683390894205</v>
+      </c>
+      <c r="K10">
+        <v>7.029087564149662</v>
+      </c>
+      <c r="L10">
+        <v>0.5936170120359279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2">
         <v>44540</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
         <v>38</v>
       </c>
-      <c r="C11" s="4">
+      <c r="F11">
         <v>391</v>
       </c>
-      <c r="D11" s="4">
+      <c r="G11">
         <v>1129</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3">
+      <c r="H11">
+        <v>30.66999999999999</v>
+      </c>
+      <c r="I11">
+        <v>3.663561646129646</v>
+      </c>
+      <c r="J11">
+        <v>5.971261839790462</v>
+      </c>
+      <c r="K11">
+        <v>7.029972911706386</v>
+      </c>
+      <c r="L11">
+        <v>-1.580436570777433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2">
         <v>44541</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12">
         <v>20</v>
       </c>
-      <c r="C12" s="4">
+      <c r="F12">
         <v>447</v>
       </c>
-      <c r="D12" s="4">
+      <c r="G12">
         <v>1461</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3">
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="J12">
+        <v>6.104793232414985</v>
+      </c>
+      <c r="K12">
+        <v>7.287560640309724</v>
+      </c>
+      <c r="L12">
+        <v>1.368654578580784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2">
         <v>44542</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13">
         <v>21</v>
       </c>
-      <c r="C13" s="4">
+      <c r="F13">
         <v>347</v>
       </c>
-      <c r="D13" s="4">
+      <c r="G13">
         <v>1237</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3">
+      <c r="H13">
+        <v>21</v>
+      </c>
+      <c r="I13">
+        <v>3.091042453358316</v>
+      </c>
+      <c r="J13">
+        <v>5.852202479774474</v>
+      </c>
+      <c r="K13">
+        <v>7.121252453244542</v>
+      </c>
+      <c r="L13">
+        <v>-2.514438501668817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2">
         <v>44543</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14">
         <v>18</v>
       </c>
-      <c r="C14" s="4">
+      <c r="F14">
         <v>443</v>
       </c>
-      <c r="D14" s="4">
+      <c r="G14">
         <v>1403</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3">
+      <c r="H14">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <v>2.94443897916644</v>
+      </c>
+      <c r="J14">
+        <v>6.095824562432225</v>
+      </c>
+      <c r="K14">
+        <v>7.247080584585756</v>
+      </c>
+      <c r="L14">
+        <v>2.41962916965203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2">
         <v>44544</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
         <v>15</v>
       </c>
-      <c r="C15" s="4">
+      <c r="F15">
         <v>427</v>
       </c>
-      <c r="D15" s="4">
+      <c r="G15">
         <v>1641</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3">
+      <c r="H15">
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="J15">
+        <v>6.059123195581797</v>
+      </c>
+      <c r="K15">
+        <v>7.403670290012373</v>
+      </c>
+      <c r="L15">
+        <v>-0.3835868600773615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2">
         <v>44545</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
         <v>15</v>
       </c>
-      <c r="C16" s="4">
+      <c r="F16">
         <v>423</v>
       </c>
-      <c r="D16" s="4">
+      <c r="G16">
         <v>1496</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3">
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="J16">
+        <v>6.049733455231958</v>
+      </c>
+      <c r="K16">
+        <v>7.311218384419629</v>
+      </c>
+      <c r="L16">
+        <v>-0.0970145185686917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2">
         <v>44546</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
         <v>11</v>
       </c>
-      <c r="C17" s="4">
+      <c r="F17">
         <v>404</v>
       </c>
-      <c r="D17" s="4">
+      <c r="G17">
         <v>1775</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3">
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>2.484906649788</v>
+      </c>
+      <c r="J17">
+        <v>6.003887067106539</v>
+      </c>
+      <c r="K17">
+        <v>7.482118923552115</v>
+      </c>
+      <c r="L17">
+        <v>-0.4672125589613536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2">
         <v>44547</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18">
         <v>17</v>
       </c>
-      <c r="C18" s="4">
+      <c r="F18">
         <v>413</v>
       </c>
-      <c r="D18" s="4">
+      <c r="G18">
         <v>1619</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3">
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>2.890371757896165</v>
+      </c>
+      <c r="J18">
+        <v>6.025865973825314</v>
+      </c>
+      <c r="K18">
+        <v>7.39018142822643</v>
+      </c>
+      <c r="L18">
+        <v>0.2226501906597953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2">
         <v>44548</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19">
         <v>14</v>
       </c>
-      <c r="C19" s="4">
+      <c r="F19">
         <v>370</v>
       </c>
-      <c r="D19" s="4">
+      <c r="G19">
         <v>969</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3">
+      <c r="H19">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>2.70805020110221</v>
+      </c>
+      <c r="J19">
+        <v>5.916202062607435</v>
+      </c>
+      <c r="K19">
+        <v>6.877296071497429</v>
+      </c>
+      <c r="L19">
+        <v>-1.087017371230232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2">
         <v>44549</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20">
         <v>11</v>
       </c>
-      <c r="C20" s="4">
+      <c r="F20">
         <v>429</v>
       </c>
-      <c r="D20" s="4">
+      <c r="G20">
         <v>678</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3">
+      <c r="H20">
+        <v>11</v>
+      </c>
+      <c r="I20">
+        <v>2.484906649788</v>
+      </c>
+      <c r="J20">
+        <v>6.063785208687608</v>
+      </c>
+      <c r="K20">
+        <v>6.520621127558696</v>
+      </c>
+      <c r="L20">
+        <v>1.476931115536637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2">
         <v>44550</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21">
         <v>18</v>
       </c>
-      <c r="C21" s="4">
+      <c r="F21">
         <v>383</v>
       </c>
-      <c r="D21" s="4">
+      <c r="G21">
         <v>1330</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3">
+      <c r="H21">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>2.94443897916644</v>
+      </c>
+      <c r="J21">
+        <v>5.950642552587727</v>
+      </c>
+      <c r="K21">
+        <v>7.193685818395112</v>
+      </c>
+      <c r="L21">
+        <v>-1.141929386427055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2">
         <v>44551</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22">
         <v>13</v>
       </c>
-      <c r="C22" s="4">
+      <c r="F22">
         <v>379</v>
       </c>
-      <c r="D22" s="4">
+      <c r="G22">
         <v>1331</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3">
+      <c r="H22">
+        <v>13</v>
+      </c>
+      <c r="I22">
+        <v>2.639057329615258</v>
+      </c>
+      <c r="J22">
+        <v>5.940171252720432</v>
+      </c>
+      <c r="K22">
+        <v>7.194436851100335</v>
+      </c>
+      <c r="L22">
+        <v>-0.10246345684914</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2">
         <v>44552</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
         <v>6</v>
       </c>
-      <c r="C23" s="4">
+      <c r="F23">
         <v>350</v>
       </c>
-      <c r="D23" s="4">
+      <c r="G23">
         <v>1176</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="3">
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>1.945910149055313</v>
+      </c>
+      <c r="J23">
+        <v>5.860786223465865</v>
+      </c>
+      <c r="K23">
+        <v>7.070724107260276</v>
+      </c>
+      <c r="L23">
+        <v>-0.7596354000620771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2">
         <v>44553</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
         <v>9</v>
       </c>
-      <c r="C24" s="4">
+      <c r="F24">
         <v>359</v>
       </c>
-      <c r="D24" s="4">
+      <c r="G24">
         <v>1257</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="3">
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <v>2.302585092994046</v>
+      </c>
+      <c r="J24">
+        <v>5.886104031450156</v>
+      </c>
+      <c r="K24">
+        <v>7.137278437260385</v>
+      </c>
+      <c r="L24">
+        <v>0.2390083876267077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2">
         <v>44554</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25">
         <v>8</v>
       </c>
-      <c r="C25" s="4">
+      <c r="F25">
         <v>339</v>
       </c>
-      <c r="D25" s="4">
+      <c r="G25">
         <v>1085</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3">
+      <c r="H25">
+        <v>8</v>
+      </c>
+      <c r="I25">
+        <v>2.19722457733622</v>
+      </c>
+      <c r="J25">
+        <v>5.828945617610207</v>
+      </c>
+      <c r="K25">
+        <v>6.990256500493881</v>
+      </c>
+      <c r="L25">
+        <v>-0.5353426819744485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2">
         <v>44555</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+      <c r="F26">
         <v>338</v>
       </c>
-      <c r="D26" s="4">
+      <c r="G26">
         <v>1814</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="3">
+      <c r="H26">
+        <v>12</v>
+      </c>
+      <c r="I26">
+        <v>2.564949357461537</v>
+      </c>
+      <c r="J26">
+        <v>5.82600010738045</v>
+      </c>
+      <c r="K26">
+        <v>7.503840746698951</v>
+      </c>
+      <c r="L26">
+        <v>-0.02717632867173236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="2">
         <v>44556</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27">
         <v>7</v>
       </c>
-      <c r="C27" s="4">
+      <c r="F27">
         <v>398</v>
       </c>
-      <c r="D27" s="4">
+      <c r="G27">
         <v>1759</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="3">
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>2.079441541679836</v>
+      </c>
+      <c r="J27">
+        <v>5.988961416889864</v>
+      </c>
+      <c r="K27">
+        <v>7.473069088032197</v>
+      </c>
+      <c r="L27">
+        <v>1.565161032409769</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="2">
         <v>44557</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28">
         <v>11</v>
       </c>
-      <c r="C28" s="4">
+      <c r="F28">
         <v>369</v>
       </c>
-      <c r="D28" s="4">
+      <c r="G28">
         <v>1119</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="3">
+      <c r="H28">
+        <v>11</v>
+      </c>
+      <c r="I28">
+        <v>2.484906649788</v>
+      </c>
+      <c r="J28">
+        <v>5.91350300563827</v>
+      </c>
+      <c r="K28">
+        <v>7.02108396428914</v>
+      </c>
+      <c r="L28">
+        <v>-0.7405646309614582</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2">
         <v>44558</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29">
         <v>13</v>
       </c>
-      <c r="C29" s="4">
+      <c r="F29">
         <v>381</v>
       </c>
-      <c r="D29" s="4">
+      <c r="G29">
         <v>893</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3">
+      <c r="H29">
+        <v>13</v>
+      </c>
+      <c r="I29">
+        <v>2.639057329615258</v>
+      </c>
+      <c r="J29">
+        <v>5.945420608606575</v>
+      </c>
+      <c r="K29">
+        <v>6.795705775173514</v>
+      </c>
+      <c r="L29">
+        <v>0.309848583644591</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="2">
         <v>44559</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30">
+        <v>12</v>
+      </c>
+      <c r="F30">
         <v>361</v>
       </c>
-      <c r="D30" s="4">
+      <c r="G30">
         <v>1028</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="3">
+      <c r="H30">
+        <v>12</v>
+      </c>
+      <c r="I30">
+        <v>2.564949357461537</v>
+      </c>
+      <c r="J30">
+        <v>5.891644211825771</v>
+      </c>
+      <c r="K30">
+        <v>6.936342735834049</v>
+      </c>
+      <c r="L30">
+        <v>-0.5192212959431366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="2">
         <v>44560</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
         <v>11</v>
       </c>
-      <c r="C31" s="4">
+      <c r="F31">
         <v>356</v>
       </c>
-      <c r="D31" s="4">
+      <c r="G31">
         <v>956</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="3">
+      <c r="H31">
+        <v>11</v>
+      </c>
+      <c r="I31">
+        <v>2.484906649788</v>
+      </c>
+      <c r="J31">
+        <v>5.877735781779639</v>
+      </c>
+      <c r="K31">
+        <v>6.863803391452954</v>
+      </c>
+      <c r="L31">
+        <v>-0.1320377358867937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2">
         <v>44561</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32">
         <v>15</v>
       </c>
-      <c r="C32" s="4">
+      <c r="F32">
         <v>237</v>
       </c>
-      <c r="D32" s="4">
+      <c r="G32">
         <v>911</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="3">
+      <c r="H32">
+        <v>15</v>
+      </c>
+      <c r="I32">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="J32">
+        <v>5.472270673671475</v>
+      </c>
+      <c r="K32">
+        <v>6.815639990074331</v>
+      </c>
+      <c r="L32">
+        <v>-3.473157945772554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="2">
         <v>44562</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33">
         <v>12</v>
       </c>
-      <c r="C33" s="4">
+      <c r="F33">
         <v>332</v>
       </c>
-      <c r="D33" s="4">
+      <c r="G33">
         <v>1350</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="3">
+      <c r="H33">
+        <v>12</v>
+      </c>
+      <c r="I33">
+        <v>2.564949357461537</v>
+      </c>
+      <c r="J33">
+        <v>5.808142489980444</v>
+      </c>
+      <c r="K33">
+        <v>7.208600337960199</v>
+      </c>
+      <c r="L33">
+        <v>2.826062839947946</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="2">
         <v>44563</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34">
         <v>26</v>
       </c>
-      <c r="C34" s="4">
+      <c r="F34">
         <v>389</v>
       </c>
-      <c r="D34" s="4">
+      <c r="G34">
         <v>1704</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="3">
+      <c r="H34">
+        <v>26</v>
+      </c>
+      <c r="I34">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="J34">
+        <v>5.966146739123692</v>
+      </c>
+      <c r="K34">
+        <v>7.441320389717617</v>
+      </c>
+      <c r="L34">
+        <v>1.502215765027422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="2">
         <v>44564</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35">
         <v>28</v>
       </c>
-      <c r="C35" s="4">
+      <c r="F35">
         <v>411</v>
       </c>
-      <c r="D35" s="4">
+      <c r="G35">
         <v>2177</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="3">
+      <c r="H35">
+        <v>28</v>
+      </c>
+      <c r="I35">
+        <v>3.367295829986474</v>
+      </c>
+      <c r="J35">
+        <v>6.021023349349527</v>
+      </c>
+      <c r="K35">
+        <v>7.686162303492906</v>
+      </c>
+      <c r="L35">
+        <v>0.5500520093972732</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="2">
         <v>44565</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36">
         <v>14</v>
       </c>
-      <c r="C36" s="4">
+      <c r="F36">
         <v>401</v>
       </c>
-      <c r="D36" s="4">
+      <c r="G36">
         <v>2549</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="3">
+      <c r="H36">
+        <v>14</v>
+      </c>
+      <c r="I36">
+        <v>2.70805020110221</v>
+      </c>
+      <c r="J36">
+        <v>5.996452088619021</v>
+      </c>
+      <c r="K36">
+        <v>7.843848638152472</v>
+      </c>
+      <c r="L36">
+        <v>-0.2481505382125064</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="2">
         <v>44566</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37">
         <v>23</v>
       </c>
-      <c r="C37" s="4">
+      <c r="F37">
         <v>361</v>
       </c>
-      <c r="D37" s="4">
+      <c r="G37">
         <v>1915</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="3">
+      <c r="H37">
+        <v>23</v>
+      </c>
+      <c r="I37">
+        <v>3.178053830347946</v>
+      </c>
+      <c r="J37">
+        <v>5.891644211825771</v>
+      </c>
+      <c r="K37">
+        <v>7.557994958530806</v>
+      </c>
+      <c r="L37">
+        <v>-1.024984394500787</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="2">
         <v>44567</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38">
         <v>18</v>
       </c>
-      <c r="C38" s="4">
+      <c r="F38">
         <v>385</v>
       </c>
-      <c r="D38" s="4">
+      <c r="G38">
         <v>2125</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="3">
+      <c r="H38">
+        <v>18</v>
+      </c>
+      <c r="I38">
+        <v>2.94443897916644</v>
+      </c>
+      <c r="J38">
+        <v>5.955837369464831</v>
+      </c>
+      <c r="K38">
+        <v>7.661997558901893</v>
+      </c>
+      <c r="L38">
+        <v>0.6214168703485825</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="2">
         <v>44568</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39">
         <v>23</v>
       </c>
-      <c r="C39" s="4">
+      <c r="F39">
         <v>397</v>
       </c>
-      <c r="D39" s="4">
+      <c r="G39">
         <v>1984</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="3">
+      <c r="H39">
+        <v>23</v>
+      </c>
+      <c r="I39">
+        <v>3.178053830347946</v>
+      </c>
+      <c r="J39">
+        <v>5.986452005284438</v>
+      </c>
+      <c r="K39">
+        <v>7.59337419312129</v>
+      </c>
+      <c r="L39">
+        <v>0.3034419748226931</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="2">
         <v>44569</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40">
         <v>16</v>
       </c>
-      <c r="C40" s="4">
+      <c r="F40">
         <v>398</v>
       </c>
-      <c r="D40" s="4">
+      <c r="G40">
         <v>1859</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="3">
+      <c r="H40">
+        <v>16</v>
+      </c>
+      <c r="I40">
+        <v>2.833213344056216</v>
+      </c>
+      <c r="J40">
+        <v>5.988961416889864</v>
+      </c>
+      <c r="K40">
+        <v>7.528331766707247</v>
+      </c>
+      <c r="L40">
+        <v>0.0250784980887282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="2">
         <v>44570</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41">
         <v>19</v>
       </c>
-      <c r="C41" s="4">
+      <c r="F41">
         <v>401</v>
       </c>
-      <c r="D41" s="4">
+      <c r="G41">
         <v>1759</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="3">
+      <c r="H41">
+        <v>19</v>
+      </c>
+      <c r="I41">
+        <v>2.995732273553991</v>
+      </c>
+      <c r="J41">
+        <v>5.996452088619021</v>
+      </c>
+      <c r="K41">
+        <v>7.473069088032197</v>
+      </c>
+      <c r="L41">
+        <v>0.0750470512407837</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="2">
         <v>44571</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42">
         <v>18</v>
       </c>
-      <c r="C42" s="4">
+      <c r="F42">
         <v>392</v>
       </c>
-      <c r="D42" s="4">
+      <c r="G42">
         <v>1571</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="3">
+      <c r="H42">
+        <v>18</v>
+      </c>
+      <c r="I42">
+        <v>2.94443897916644</v>
+      </c>
+      <c r="J42">
+        <v>5.973809611869261</v>
+      </c>
+      <c r="K42">
+        <v>7.360103972989152</v>
+      </c>
+      <c r="L42">
+        <v>-0.2259945212774568</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="2">
         <v>44572</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43">
         <v>18</v>
       </c>
-      <c r="C43" s="4">
+      <c r="F43">
         <v>398</v>
       </c>
-      <c r="D43" s="4">
+      <c r="G43">
         <v>1818</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="3">
+      <c r="H43">
+        <v>18</v>
+      </c>
+      <c r="I43">
+        <v>2.94443897916644</v>
+      </c>
+      <c r="J43">
+        <v>5.988961416889864</v>
+      </c>
+      <c r="K43">
+        <v>7.506042178518122</v>
+      </c>
+      <c r="L43">
+        <v>0.1509474700366731</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="2">
         <v>44573</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44">
         <v>21</v>
       </c>
-      <c r="C44" s="4">
+      <c r="F44">
         <v>376</v>
       </c>
-      <c r="D44" s="4">
+      <c r="G44">
         <v>1506</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="3">
+      <c r="H44">
+        <v>21</v>
+      </c>
+      <c r="I44">
+        <v>3.091042453358316</v>
+      </c>
+      <c r="J44">
+        <v>5.932245187448011</v>
+      </c>
+      <c r="K44">
+        <v>7.317876198626496</v>
+      </c>
+      <c r="L44">
+        <v>-0.5592179135946864</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="2">
         <v>44574</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45">
         <v>15</v>
       </c>
-      <c r="C45" s="4">
+      <c r="F45">
         <v>369</v>
       </c>
-      <c r="D45" s="4">
+      <c r="G45">
         <v>1724</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="3">
+      <c r="H45">
+        <v>15</v>
+      </c>
+      <c r="I45">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="J45">
+        <v>5.91350300563827</v>
+      </c>
+      <c r="K45">
+        <v>7.45298232946546</v>
+      </c>
+      <c r="L45">
+        <v>-0.1813467173667718</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="2">
         <v>44575</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46">
         <v>16</v>
       </c>
-      <c r="C46" s="4">
+      <c r="F46">
         <v>387</v>
       </c>
-      <c r="D46" s="4">
+      <c r="G46">
         <v>2196</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="3">
+      <c r="H46">
+        <v>16</v>
+      </c>
+      <c r="I46">
+        <v>2.833213344056216</v>
+      </c>
+      <c r="J46">
+        <v>5.961005339623274</v>
+      </c>
+      <c r="K46">
+        <v>7.69484807238461</v>
+      </c>
+      <c r="L46">
+        <v>0.4629428606074555</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="2">
         <v>44576</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47">
         <v>11</v>
       </c>
-      <c r="C47" s="4">
+      <c r="F47">
         <v>399</v>
       </c>
-      <c r="D47" s="4">
+      <c r="G47">
         <v>1933</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="3">
+      <c r="H47">
+        <v>11</v>
+      </c>
+      <c r="I47">
+        <v>2.484906649788</v>
+      </c>
+      <c r="J47">
+        <v>5.991464547107982</v>
+      </c>
+      <c r="K47">
+        <v>7.56734567601324</v>
+      </c>
+      <c r="L47">
+        <v>0.3026687825321766</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="2">
         <v>44577</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48">
         <v>16</v>
       </c>
-      <c r="C48" s="4">
+      <c r="F48">
         <v>413</v>
       </c>
-      <c r="D48" s="4">
+      <c r="G48">
         <v>1959</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="3">
+      <c r="H48">
+        <v>16</v>
+      </c>
+      <c r="I48">
+        <v>2.833213344056216</v>
+      </c>
+      <c r="J48">
+        <v>6.025865973825314</v>
+      </c>
+      <c r="K48">
+        <v>7.580699752224563</v>
+      </c>
+      <c r="L48">
+        <v>0.3474170774633976</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="2">
         <v>44578</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49">
         <v>19</v>
       </c>
-      <c r="C49" s="4">
+      <c r="F49">
         <v>425</v>
       </c>
-      <c r="D49" s="4">
+      <c r="G49">
         <v>1689</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="3">
+      <c r="H49">
+        <v>19</v>
+      </c>
+      <c r="I49">
+        <v>2.995732273553991</v>
+      </c>
+      <c r="J49">
+        <v>6.054439346269371</v>
+      </c>
+      <c r="K49">
+        <v>7.432483807917119</v>
+      </c>
+      <c r="L49">
+        <v>0.2931266951867286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="2">
         <v>44579</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50">
         <v>16</v>
       </c>
-      <c r="C50" s="4">
+      <c r="F50">
         <v>368</v>
       </c>
-      <c r="D50" s="4">
+      <c r="G50">
         <v>1524</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="3">
+      <c r="H50">
+        <v>16</v>
+      </c>
+      <c r="I50">
+        <v>2.833213344056216</v>
+      </c>
+      <c r="J50">
+        <v>5.910796644040527</v>
+      </c>
+      <c r="K50">
+        <v>7.329749689041512</v>
+      </c>
+      <c r="L50">
+        <v>-1.432202034837427</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="2">
         <v>44580</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51">
         <v>16</v>
       </c>
-      <c r="C51" s="4">
+      <c r="F51">
         <v>390</v>
       </c>
-      <c r="D51" s="4">
+      <c r="G51">
         <v>1041</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="3">
+      <c r="H51">
+        <v>16</v>
+      </c>
+      <c r="I51">
+        <v>2.833213344056216</v>
+      </c>
+      <c r="J51">
+        <v>5.968707559985366</v>
+      </c>
+      <c r="K51">
+        <v>6.948897222313312</v>
+      </c>
+      <c r="L51">
+        <v>0.5650915648806212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="2">
         <v>44581</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52">
         <v>18</v>
       </c>
-      <c r="C52" s="4">
+      <c r="F52">
         <v>431</v>
       </c>
-      <c r="D52" s="4">
+      <c r="G52">
         <v>1175</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="3">
+      <c r="H52">
+        <v>18</v>
+      </c>
+      <c r="I52">
+        <v>2.94443897916644</v>
+      </c>
+      <c r="J52">
+        <v>6.068425588244111</v>
+      </c>
+      <c r="K52">
+        <v>7.069874128458572</v>
+      </c>
+      <c r="L52">
+        <v>1.012121833895197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="2">
         <v>44582</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53">
         <v>24</v>
       </c>
-      <c r="C53" s="4">
+      <c r="F53">
         <v>434</v>
       </c>
-      <c r="D53" s="4">
+      <c r="G53">
         <v>1681</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="3">
+      <c r="H53">
+        <v>24</v>
+      </c>
+      <c r="I53">
+        <v>3.218875824868201</v>
+      </c>
+      <c r="J53">
+        <v>6.075346031088684</v>
+      </c>
+      <c r="K53">
+        <v>7.427738840532894</v>
+      </c>
+      <c r="L53">
+        <v>0.07212716397296504</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="2">
         <v>44583</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54">
+        <v>13</v>
+      </c>
+      <c r="F54">
         <v>385</v>
       </c>
-      <c r="D54" s="4">
+      <c r="G54">
         <v>963</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="3">
+      <c r="H54">
+        <v>13</v>
+      </c>
+      <c r="I54">
+        <v>2.639057329615258</v>
+      </c>
+      <c r="J54">
+        <v>5.955837369464831</v>
+      </c>
+      <c r="K54">
+        <v>6.871091294610546</v>
+      </c>
+      <c r="L54">
+        <v>-1.211249785651077</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="2">
         <v>44584</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55">
         <v>14</v>
       </c>
-      <c r="C55" s="4">
+      <c r="F55">
         <v>444</v>
       </c>
-      <c r="D55" s="4">
+      <c r="G55">
         <v>783</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="3">
+      <c r="H55">
+        <v>14</v>
+      </c>
+      <c r="I55">
+        <v>2.70805020110221</v>
+      </c>
+      <c r="J55">
+        <v>6.09807428216624</v>
+      </c>
+      <c r="K55">
+        <v>6.664409020350408</v>
+      </c>
+      <c r="L55">
+        <v>1.449890635356894</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="2">
         <v>44585</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56">
         <v>26</v>
       </c>
-      <c r="C56" s="4">
+      <c r="F56">
         <v>425</v>
       </c>
-      <c r="D56" s="4">
+      <c r="G56">
         <v>1040</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="3">
+      <c r="H56">
+        <v>26</v>
+      </c>
+      <c r="I56">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="J56">
+        <v>6.054439346269371</v>
+      </c>
+      <c r="K56">
+        <v>6.947937068614969</v>
+      </c>
+      <c r="L56">
+        <v>-0.4557793776171728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="2">
         <v>44586</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57">
         <v>12</v>
       </c>
-      <c r="C57" s="4">
+      <c r="F57">
         <v>384</v>
       </c>
-      <c r="D57" s="4">
+      <c r="G57">
         <v>968</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="3">
+      <c r="H57">
+        <v>12</v>
+      </c>
+      <c r="I57">
+        <v>2.564949357461537</v>
+      </c>
+      <c r="J57">
+        <v>5.953243334287785</v>
+      </c>
+      <c r="K57">
+        <v>6.876264611890766</v>
+      </c>
+      <c r="L57">
+        <v>-1.019610185822881</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="2">
         <v>44587</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58">
         <v>18</v>
       </c>
-      <c r="C58" s="4">
+      <c r="F58">
         <v>369</v>
       </c>
-      <c r="D58" s="4">
+      <c r="G58">
         <v>874</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="3">
+      <c r="H58">
+        <v>18</v>
+      </c>
+      <c r="I58">
+        <v>2.94443897916644</v>
+      </c>
+      <c r="J58">
+        <v>5.91350300563827</v>
+      </c>
+      <c r="K58">
+        <v>6.774223886357614</v>
+      </c>
+      <c r="L58">
+        <v>-0.3865452299668775</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="2">
         <v>44588</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59">
         <v>12</v>
       </c>
-      <c r="C59" s="4">
+      <c r="F59">
         <v>375</v>
       </c>
-      <c r="D59" s="4">
+      <c r="G59">
         <v>942</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="3">
+      <c r="H59">
+        <v>12</v>
+      </c>
+      <c r="I59">
+        <v>2.564949357461537</v>
+      </c>
+      <c r="J59">
+        <v>5.929589143389895</v>
+      </c>
+      <c r="K59">
+        <v>6.849066282633458</v>
+      </c>
+      <c r="L59">
+        <v>0.1555440187385386</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="2">
         <v>44589</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60">
+        <v>13</v>
+      </c>
+      <c r="F60">
         <v>407</v>
       </c>
-      <c r="D60" s="4">
+      <c r="G60">
         <v>761</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="3">
+      <c r="H60">
+        <v>13</v>
+      </c>
+      <c r="I60">
+        <v>2.639057329615258</v>
+      </c>
+      <c r="J60">
+        <v>6.011267174404161</v>
+      </c>
+      <c r="K60">
+        <v>6.635946555686647</v>
+      </c>
+      <c r="L60">
+        <v>0.8093242707949315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="2">
         <v>44590</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61">
         <v>14</v>
       </c>
-      <c r="C61" s="4">
+      <c r="F61">
         <v>401</v>
       </c>
-      <c r="D61" s="4">
+      <c r="G61">
         <v>1447</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="3">
+      <c r="H61">
+        <v>14</v>
+      </c>
+      <c r="I61">
+        <v>2.70805020110221</v>
+      </c>
+      <c r="J61">
+        <v>5.996452088619021</v>
+      </c>
+      <c r="K61">
+        <v>7.277938572945661</v>
+      </c>
+      <c r="L61">
+        <v>-0.1492566073312283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="2">
         <v>44591</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62">
         <v>9</v>
       </c>
-      <c r="C62" s="4">
+      <c r="F62">
         <v>424</v>
       </c>
-      <c r="D62" s="4">
+      <c r="G62">
         <v>1188</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="3">
+      <c r="H62">
+        <v>9</v>
+      </c>
+      <c r="I62">
+        <v>2.302585092994046</v>
+      </c>
+      <c r="J62">
+        <v>6.052089168924417</v>
+      </c>
+      <c r="K62">
+        <v>7.080867896690782</v>
+      </c>
+      <c r="L62">
+        <v>0.5662758874732141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="2">
         <v>44592</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63">
         <v>15</v>
       </c>
-      <c r="C63" s="4">
+      <c r="F63">
         <v>443</v>
       </c>
-      <c r="D63" s="4">
+      <c r="G63">
         <v>1259</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="3">
+      <c r="H63">
+        <v>15</v>
+      </c>
+      <c r="I63">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="J63">
+        <v>6.095824562432225</v>
+      </c>
+      <c r="K63">
+        <v>7.138866999945524</v>
+      </c>
+      <c r="L63">
+        <v>0.4563048978751851</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="2">
         <v>44593</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64">
         <v>25</v>
       </c>
-      <c r="C64" s="4">
+      <c r="F64">
         <v>460</v>
       </c>
-      <c r="D64" s="4">
+      <c r="G64">
         <v>1043</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="3">
+      <c r="H64">
+        <v>25</v>
+      </c>
+      <c r="I64">
+        <v>3.258096538021482</v>
+      </c>
+      <c r="J64">
+        <v>6.133398042996649</v>
+      </c>
+      <c r="K64">
+        <v>6.950814768442584</v>
+      </c>
+      <c r="L64">
+        <v>0.4000454096780288</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="2">
         <v>44594</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65">
         <v>13</v>
       </c>
-      <c r="C65" s="4">
+      <c r="F65">
         <v>444</v>
       </c>
-      <c r="D65" s="4">
+      <c r="G65">
         <v>1146</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="3">
+      <c r="H65">
+        <v>13</v>
+      </c>
+      <c r="I65">
+        <v>2.639057329615258</v>
+      </c>
+      <c r="J65">
+        <v>6.09807428216624</v>
+      </c>
+      <c r="K65">
+        <v>7.044905117129371</v>
+      </c>
+      <c r="L65">
+        <v>-0.3763030838217389</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="2">
         <v>44595</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="4">
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66">
+        <v>21</v>
+      </c>
+      <c r="F66">
         <v>453</v>
       </c>
-      <c r="D66" s="4">
+      <c r="G66">
         <v>1084</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="3">
+      <c r="H66">
+        <v>21</v>
+      </c>
+      <c r="I66">
+        <v>3.091042453358316</v>
+      </c>
+      <c r="J66">
+        <v>6.118097198041348</v>
+      </c>
+      <c r="K66">
+        <v>6.98933526597456</v>
+      </c>
+      <c r="L66">
+        <v>0.2124891480872861</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="2">
         <v>44596</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67">
         <v>23</v>
       </c>
-      <c r="C67" s="4">
+      <c r="F67">
         <v>483</v>
       </c>
-      <c r="D67" s="4">
+      <c r="G67">
         <v>1059</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="3">
+      <c r="H67">
+        <v>23</v>
+      </c>
+      <c r="I67">
+        <v>3.178053830347946</v>
+      </c>
+      <c r="J67">
+        <v>6.182084906716632</v>
+      </c>
+      <c r="K67">
+        <v>6.966024187106113</v>
+      </c>
+      <c r="L67">
+        <v>0.6934643220431482</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="2">
         <v>44597</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68">
         <v>15</v>
       </c>
-      <c r="C68" s="4">
+      <c r="F68">
         <v>389</v>
       </c>
-      <c r="D68" s="4">
+      <c r="G68">
         <v>1413</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="3">
+      <c r="H68">
+        <v>15</v>
+      </c>
+      <c r="I68">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="J68">
+        <v>5.966146739123692</v>
+      </c>
+      <c r="K68">
+        <v>7.254177846456518</v>
+      </c>
+      <c r="L68">
+        <v>-2.25417805251989</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="2">
         <v>44598</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69">
         <v>12</v>
       </c>
-      <c r="C69" s="4">
+      <c r="F69">
         <v>404</v>
       </c>
-      <c r="D69" s="4">
+      <c r="G69">
         <v>1361</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="3">
+      <c r="H69">
+        <v>12</v>
+      </c>
+      <c r="I69">
+        <v>2.564949357461537</v>
+      </c>
+      <c r="J69">
+        <v>6.003887067106539</v>
+      </c>
+      <c r="K69">
+        <v>7.216709486709457</v>
+      </c>
+      <c r="L69">
+        <v>0.3766683189257591</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="2">
         <v>44599</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70">
         <v>22</v>
       </c>
-      <c r="C70" s="4">
+      <c r="F70">
         <v>464</v>
       </c>
-      <c r="D70" s="4">
+      <c r="G70">
         <v>1276</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="3">
+      <c r="H70">
+        <v>22</v>
+      </c>
+      <c r="I70">
+        <v>3.13549421592915</v>
+      </c>
+      <c r="J70">
+        <v>6.142037405587356</v>
+      </c>
+      <c r="K70">
+        <v>7.152268856032539</v>
+      </c>
+      <c r="L70">
+        <v>1.440907986296235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="2">
         <v>44600</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71">
         <v>17</v>
       </c>
-      <c r="C71" s="4">
+      <c r="F71">
         <v>438</v>
       </c>
-      <c r="D71" s="4">
+      <c r="G71">
         <v>1409</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="3">
+      <c r="H71">
+        <v>17</v>
+      </c>
+      <c r="I71">
+        <v>2.890371757896165</v>
+      </c>
+      <c r="J71">
+        <v>6.084499413075172</v>
+      </c>
+      <c r="K71">
+        <v>7.251344983372214</v>
+      </c>
+      <c r="L71">
+        <v>-0.6122096920816666</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="2">
         <v>44601</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72">
         <v>20</v>
       </c>
-      <c r="C72" s="4">
+      <c r="F72">
         <v>442</v>
       </c>
-      <c r="D72" s="4">
+      <c r="G72">
         <v>1501</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="3">
+      <c r="H72">
+        <v>20</v>
+      </c>
+      <c r="I72">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="J72">
+        <v>6.093569770045136</v>
+      </c>
+      <c r="K72">
+        <v>7.31455283232408</v>
+      </c>
+      <c r="L72">
+        <v>0.09534650517229082</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="2">
         <v>44602</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73">
         <v>23</v>
       </c>
-      <c r="C73" s="4">
+      <c r="F73">
         <v>459</v>
       </c>
-      <c r="D73" s="4">
+      <c r="G73">
         <v>1744</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="3">
+      <c r="H73">
+        <v>23</v>
+      </c>
+      <c r="I73">
+        <v>3.178053830347946</v>
+      </c>
+      <c r="J73">
+        <v>6.131226489483141</v>
+      </c>
+      <c r="K73">
+        <v>7.464509834636528</v>
+      </c>
+      <c r="L73">
+        <v>0.4004892439999104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="2">
         <v>44603</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74">
         <v>16</v>
       </c>
-      <c r="C74" s="4">
+      <c r="F74">
         <v>463</v>
       </c>
-      <c r="D74" s="4">
+      <c r="G74">
         <v>1922</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="3">
+      <c r="H74">
+        <v>16</v>
+      </c>
+      <c r="I74">
+        <v>2.833213344056216</v>
+      </c>
+      <c r="J74">
+        <v>6.139884552226255</v>
+      </c>
+      <c r="K74">
+        <v>7.56164174558878</v>
+      </c>
+      <c r="L74">
+        <v>0.0931495057214633</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="2">
         <v>44604</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75">
         <v>15</v>
       </c>
-      <c r="C75" s="4">
+      <c r="F75">
         <v>521</v>
       </c>
-      <c r="D75" s="4">
+      <c r="G75">
         <v>1646</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="3">
+      <c r="H75">
+        <v>15</v>
+      </c>
+      <c r="I75">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="J75">
+        <v>6.257667587882639</v>
+      </c>
+      <c r="K75">
+        <v>7.40671073017764</v>
+      </c>
+      <c r="L75">
+        <v>1.307989629676641</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="2">
         <v>44605</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76">
         <v>27</v>
       </c>
-      <c r="C76" s="4">
+      <c r="F76">
         <v>513</v>
       </c>
-      <c r="D76" s="4">
+      <c r="G76">
         <v>2013</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="3">
+      <c r="H76">
+        <v>27</v>
+      </c>
+      <c r="I76">
+        <v>3.332204510175204</v>
+      </c>
+      <c r="J76">
+        <v>6.242223265455165</v>
+      </c>
+      <c r="K76">
+        <v>7.607878073278507</v>
+      </c>
+      <c r="L76">
+        <v>-0.175921115214404</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="2">
         <v>44606</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77">
         <v>19</v>
       </c>
-      <c r="C77" s="4">
+      <c r="F77">
         <v>510</v>
       </c>
-      <c r="D77" s="4">
+      <c r="G77">
         <v>2707</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="3">
+      <c r="H77">
+        <v>19</v>
+      </c>
+      <c r="I77">
+        <v>2.995732273553991</v>
+      </c>
+      <c r="J77">
+        <v>6.236369590203704</v>
+      </c>
+      <c r="K77">
+        <v>7.903965634032166</v>
+      </c>
+      <c r="L77">
+        <v>-0.06632372453982072</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="2">
         <v>44607</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78">
         <v>17</v>
       </c>
-      <c r="C78" s="4">
+      <c r="F78">
         <v>502</v>
       </c>
-      <c r="D78" s="4">
+      <c r="G78">
         <v>2454</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="3">
+      <c r="H78">
+        <v>17</v>
+      </c>
+      <c r="I78">
+        <v>2.890371757896165</v>
+      </c>
+      <c r="J78">
+        <v>6.220590170099739</v>
+      </c>
+      <c r="K78">
+        <v>7.805882040228621</v>
+      </c>
+      <c r="L78">
+        <v>-0.1778230788643498</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="2">
         <v>44608</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79">
         <v>22</v>
       </c>
-      <c r="C79" s="4">
+      <c r="F79">
         <v>525</v>
       </c>
-      <c r="D79" s="4">
+      <c r="G79">
         <v>2019</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="3">
+      <c r="H79">
+        <v>22</v>
+      </c>
+      <c r="I79">
+        <v>3.13549421592915</v>
+      </c>
+      <c r="J79">
+        <v>6.26530121273771</v>
+      </c>
+      <c r="K79">
+        <v>7.61085279039525</v>
+      </c>
+      <c r="L79">
+        <v>0.5075219723711193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="2">
         <v>44609</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80">
         <v>38</v>
       </c>
-      <c r="C80" s="4">
+      <c r="F80">
         <v>505</v>
       </c>
-      <c r="D80" s="4">
+      <c r="G80">
         <v>2351</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="3">
+      <c r="H80">
+        <v>30.66999999999999</v>
+      </c>
+      <c r="I80">
+        <v>3.663561646129646</v>
+      </c>
+      <c r="J80">
+        <v>6.226536669287466</v>
+      </c>
+      <c r="K80">
+        <v>7.763021309018518</v>
+      </c>
+      <c r="L80">
+        <v>-0.4406734205349672</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="2">
         <v>44610</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="4">
+      <c r="E81">
+        <v>28</v>
+      </c>
+      <c r="F81">
         <v>558</v>
       </c>
-      <c r="D81" s="4">
+      <c r="G81">
         <v>1871</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="3">
+      <c r="H81">
+        <v>28</v>
+      </c>
+      <c r="I81">
+        <v>3.367295829986474</v>
+      </c>
+      <c r="J81">
+        <v>6.326149473155099</v>
+      </c>
+      <c r="K81">
+        <v>7.534762657037537</v>
+      </c>
+      <c r="L81">
+        <v>1.149818567791201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="2">
         <v>44611</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82">
         <v>23</v>
       </c>
-      <c r="C82" s="4">
+      <c r="F82">
         <v>614</v>
       </c>
-      <c r="D82" s="4">
+      <c r="G82">
         <v>1462</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="3">
+      <c r="H82">
+        <v>23</v>
+      </c>
+      <c r="I82">
+        <v>3.178053830347946</v>
+      </c>
+      <c r="J82">
+        <v>6.421622267806518</v>
+      </c>
+      <c r="K82">
+        <v>7.288244401020124</v>
+      </c>
+      <c r="L82">
+        <v>1.156999764692301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="2">
         <v>44612</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83">
         <v>15</v>
       </c>
-      <c r="C83" s="4">
+      <c r="F83">
         <v>603</v>
       </c>
-      <c r="D83" s="4">
+      <c r="G83">
         <v>1097</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="3">
+      <c r="H83">
+        <v>15</v>
+      </c>
+      <c r="I83">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="J83">
+        <v>6.403574197934815</v>
+      </c>
+      <c r="K83">
+        <v>7.001245622069476</v>
+      </c>
+      <c r="L83">
+        <v>-0.2229650711103837</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="2">
         <v>44613</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84">
         <v>26</v>
       </c>
-      <c r="C84" s="4">
+      <c r="F84">
         <v>726</v>
       </c>
-      <c r="D84" s="4">
+      <c r="G84">
         <v>1071</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="3">
+      <c r="H84">
+        <v>26</v>
+      </c>
+      <c r="I84">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="J84">
+        <v>6.588926477533519</v>
+      </c>
+      <c r="K84">
+        <v>6.977281341630747</v>
+      </c>
+      <c r="L84">
+        <v>2.38832885499761</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="2">
         <v>44614</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85">
         <v>18</v>
       </c>
-      <c r="C85" s="4">
+      <c r="F85">
         <v>607</v>
       </c>
-      <c r="D85" s="4">
+      <c r="G85">
         <v>1046</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="3">
+      <c r="H85">
+        <v>18</v>
+      </c>
+      <c r="I85">
+        <v>2.94443897916644</v>
+      </c>
+      <c r="J85">
+        <v>6.410174881966167</v>
+      </c>
+      <c r="K85">
+        <v>6.953684210870537</v>
+      </c>
+      <c r="L85">
+        <v>-2.30701718110512</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="2">
         <v>44615</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" t="s">
         <v>21</v>
       </c>
-      <c r="C86" s="4">
+      <c r="D86" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86">
+        <v>21</v>
+      </c>
+      <c r="F86">
         <v>518</v>
       </c>
-      <c r="D86" s="4">
+      <c r="G86">
         <v>944</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="3">
+      <c r="H86">
+        <v>21</v>
+      </c>
+      <c r="I86">
+        <v>3.091042453358316</v>
+      </c>
+      <c r="J86">
+        <v>6.251903883165888</v>
+      </c>
+      <c r="K86">
+        <v>6.851184927493743</v>
+      </c>
+      <c r="L86">
+        <v>-1.877756636027755</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="2">
         <v>44616</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87">
         <v>5</v>
       </c>
-      <c r="C87" s="4">
+      <c r="F87">
         <v>599</v>
       </c>
-      <c r="D87" s="4">
+      <c r="G87">
         <v>1136</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="3">
+      <c r="H87">
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <v>1.791759469228055</v>
+      </c>
+      <c r="J87">
+        <v>6.396929655216146</v>
+      </c>
+      <c r="K87">
+        <v>7.036148493750536</v>
+      </c>
+      <c r="L87">
+        <v>1.714863147558749</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="2">
         <v>44617</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88">
         <v>12</v>
       </c>
-      <c r="C88" s="4">
+      <c r="F88">
         <v>531</v>
       </c>
-      <c r="D88" s="4">
+      <c r="G88">
         <v>1432</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="3">
+      <c r="H88">
+        <v>12</v>
+      </c>
+      <c r="I88">
+        <v>2.564949357461537</v>
+      </c>
+      <c r="J88">
+        <v>6.276643489341645</v>
+      </c>
+      <c r="K88">
+        <v>7.267525427828172</v>
+      </c>
+      <c r="L88">
+        <v>-1.431039257435007</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="2">
         <v>44618</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89">
         <v>19</v>
       </c>
-      <c r="C89" s="4">
+      <c r="F89">
         <v>598</v>
       </c>
-      <c r="D89" s="4">
+      <c r="G89">
         <v>1388</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="3">
+      <c r="H89">
+        <v>19</v>
+      </c>
+      <c r="I89">
+        <v>2.995732273553991</v>
+      </c>
+      <c r="J89">
+        <v>6.395261598115449</v>
+      </c>
+      <c r="K89">
+        <v>7.236339342754344</v>
+      </c>
+      <c r="L89">
+        <v>1.410601277669141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="2">
         <v>44619</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
         <v>21</v>
       </c>
-      <c r="C90" s="4">
+      <c r="D90" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90">
+        <v>21</v>
+      </c>
+      <c r="F90">
         <v>516</v>
       </c>
-      <c r="D90" s="4">
+      <c r="G90">
         <v>1175</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="3">
+      <c r="H90">
+        <v>21</v>
+      </c>
+      <c r="I90">
+        <v>3.091042453358316</v>
+      </c>
+      <c r="J90">
+        <v>6.248042874508429</v>
+      </c>
+      <c r="K90">
+        <v>7.069874128458572</v>
+      </c>
+      <c r="L90">
+        <v>-1.738405138073873</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="2">
         <v>44620</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" t="s">
         <v>21</v>
       </c>
-      <c r="C91" s="4">
+      <c r="D91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91">
+        <v>21</v>
+      </c>
+      <c r="F91">
         <v>527</v>
       </c>
-      <c r="D91" s="4">
+      <c r="G91">
         <v>1272</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="3">
+      <c r="H91">
+        <v>21</v>
+      </c>
+      <c r="I91">
+        <v>3.091042453358316</v>
+      </c>
+      <c r="J91">
+        <v>6.269096283706261</v>
+      </c>
+      <c r="K91">
+        <v>7.149131598557407</v>
+      </c>
+      <c r="L91">
+        <v>0.2408471832968999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="2">
         <v>44621</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92">
         <v>20</v>
       </c>
-      <c r="C92" s="4">
+      <c r="F92">
         <v>505</v>
       </c>
-      <c r="D92" s="4">
+      <c r="G92">
         <v>1706</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="3">
+      <c r="H92">
+        <v>20</v>
+      </c>
+      <c r="I92">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="J92">
+        <v>6.226536669287466</v>
+      </c>
+      <c r="K92">
+        <v>7.442492722794441</v>
+      </c>
+      <c r="L92">
+        <v>-0.4842755122537632</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="2">
         <v>44622</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" t="s">
+        <v>26</v>
+      </c>
+      <c r="E93">
         <v>17</v>
       </c>
-      <c r="C93" s="4">
+      <c r="F93">
         <v>510</v>
       </c>
-      <c r="D93" s="4">
+      <c r="G93">
         <v>1325</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="3">
+      <c r="H93">
+        <v>17</v>
+      </c>
+      <c r="I93">
+        <v>2.890371757896165</v>
+      </c>
+      <c r="J93">
+        <v>6.236369590203704</v>
+      </c>
+      <c r="K93">
+        <v>7.189922170745808</v>
+      </c>
+      <c r="L93">
+        <v>0.1109745270281977</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="2">
         <v>44623</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94">
         <v>20</v>
       </c>
-      <c r="C94" s="4">
+      <c r="F94">
         <v>459</v>
       </c>
-      <c r="D94" s="4">
+      <c r="G94">
         <v>1435</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="3">
+      <c r="H94">
+        <v>20</v>
+      </c>
+      <c r="I94">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="J94">
+        <v>6.131226489483141</v>
+      </c>
+      <c r="K94">
+        <v>7.269616749608169</v>
+      </c>
+      <c r="L94">
+        <v>-1.158894295643879</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="2">
         <v>44624</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95">
         <v>17</v>
       </c>
-      <c r="C95" s="4">
+      <c r="F95">
         <v>528</v>
       </c>
-      <c r="D95" s="4">
+      <c r="G95">
         <v>1214</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="3">
+      <c r="H95">
+        <v>17</v>
+      </c>
+      <c r="I95">
+        <v>2.890371757896165</v>
+      </c>
+      <c r="J95">
+        <v>6.270988431858299</v>
+      </c>
+      <c r="K95">
+        <v>7.102499355774649</v>
+      </c>
+      <c r="L95">
+        <v>1.553965300523565</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="2">
         <v>44625</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96">
         <v>31</v>
       </c>
-      <c r="C96" s="4">
+      <c r="F96">
         <v>536</v>
       </c>
-      <c r="D96" s="4">
+      <c r="G96">
         <v>1147</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="3">
+      <c r="H96">
+        <v>31</v>
+      </c>
+      <c r="I96">
+        <v>3.465735902799727</v>
+      </c>
+      <c r="J96">
+        <v>6.285998094508865</v>
+      </c>
+      <c r="K96">
+        <v>7.045776576879511</v>
+      </c>
+      <c r="L96">
+        <v>0.1734232194283365</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="2">
         <v>44626</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97">
         <v>23</v>
       </c>
-      <c r="C97" s="4">
+      <c r="F97">
         <v>548</v>
       </c>
-      <c r="D97" s="4">
+      <c r="G97">
         <v>1386</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="3">
+      <c r="H97">
+        <v>23</v>
+      </c>
+      <c r="I97">
+        <v>3.178053830347946</v>
+      </c>
+      <c r="J97">
+        <v>6.30809844150953</v>
+      </c>
+      <c r="K97">
+        <v>7.234898420314831</v>
+      </c>
+      <c r="L97">
+        <v>0.2577260158588004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="2">
         <v>44627</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98">
         <v>18</v>
       </c>
-      <c r="C98" s="4">
+      <c r="F98">
         <v>468</v>
       </c>
-      <c r="D98" s="4">
+      <c r="G98">
         <v>1571</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="3">
+      <c r="H98">
+        <v>18</v>
+      </c>
+      <c r="I98">
+        <v>2.94443897916644</v>
+      </c>
+      <c r="J98">
+        <v>6.150602768446279</v>
+      </c>
+      <c r="K98">
+        <v>7.360103972989152</v>
+      </c>
+      <c r="L98">
+        <v>-1.776092168655314</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="2">
         <v>44628</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" t="s">
+        <v>32</v>
+      </c>
+      <c r="E99">
         <v>20</v>
       </c>
-      <c r="C99" s="4">
+      <c r="F99">
         <v>495</v>
       </c>
-      <c r="D99" s="4">
+      <c r="G99">
         <v>1392</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
-      <c r="A100" s="3">
+      <c r="H99">
+        <v>20</v>
+      </c>
+      <c r="I99">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="J99">
+        <v>6.206575926724928</v>
+      </c>
+      <c r="K99">
+        <v>7.239214973779806</v>
+      </c>
+      <c r="L99">
+        <v>0.6152878085030515</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="2">
         <v>44629</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="4">
+      <c r="D100" t="s">
+        <v>26</v>
+      </c>
+      <c r="E100">
+        <v>22</v>
+      </c>
+      <c r="F100">
         <v>526</v>
       </c>
-      <c r="D100" s="4">
+      <c r="G100">
         <v>1179</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="3">
+      <c r="H100">
+        <v>22</v>
+      </c>
+      <c r="I100">
+        <v>3.13549421592915</v>
+      </c>
+      <c r="J100">
+        <v>6.267200548541362</v>
+      </c>
+      <c r="K100">
+        <v>7.07326971745971</v>
+      </c>
+      <c r="L100">
+        <v>0.6860944210724398</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="2">
         <v>44630</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101">
         <v>16</v>
       </c>
-      <c r="C101" s="4">
+      <c r="F101">
         <v>475</v>
       </c>
-      <c r="D101" s="4">
+      <c r="G101">
         <v>1292</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
-      <c r="A102" s="3">
+      <c r="H101">
+        <v>16</v>
+      </c>
+      <c r="I101">
+        <v>2.833213344056216</v>
+      </c>
+      <c r="J101">
+        <v>6.16541785423142</v>
+      </c>
+      <c r="K101">
+        <v>7.164720378771857</v>
+      </c>
+      <c r="L101">
+        <v>-1.14019516465606</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="2">
         <v>44631</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102">
         <v>24</v>
       </c>
-      <c r="C102" s="4">
+      <c r="F102">
         <v>517</v>
       </c>
-      <c r="D102" s="4">
+      <c r="G102">
         <v>1278</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
-      <c r="A103" s="3">
+      <c r="H102">
+        <v>24</v>
+      </c>
+      <c r="I102">
+        <v>3.218875824868201</v>
+      </c>
+      <c r="J102">
+        <v>6.249975242259483</v>
+      </c>
+      <c r="K102">
+        <v>7.153833801578843</v>
+      </c>
+      <c r="L102">
+        <v>0.9431392841007771</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="2">
         <v>44632</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103">
         <v>27</v>
       </c>
-      <c r="C103" s="4">
+      <c r="F103">
         <v>507</v>
       </c>
-      <c r="D103" s="4">
+      <c r="G103">
         <v>1400</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
-      <c r="A104" s="3">
+      <c r="H103">
+        <v>27</v>
+      </c>
+      <c r="I103">
+        <v>3.332204510175204</v>
+      </c>
+      <c r="J103">
+        <v>6.230481447578482</v>
+      </c>
+      <c r="K103">
+        <v>7.244941546337007</v>
+      </c>
+      <c r="L103">
+        <v>-0.220973503408743</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="2">
         <v>44633</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104">
         <v>19</v>
       </c>
-      <c r="C104" s="4">
+      <c r="F104">
         <v>534</v>
       </c>
-      <c r="D104" s="4">
+      <c r="G104">
         <v>1371</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
-      <c r="A105" s="3">
+      <c r="H104">
+        <v>19</v>
+      </c>
+      <c r="I104">
+        <v>2.995732273553991</v>
+      </c>
+      <c r="J104">
+        <v>6.282266746896006</v>
+      </c>
+      <c r="K104">
+        <v>7.22402480828583</v>
+      </c>
+      <c r="L104">
+        <v>0.591779518187284</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="2">
         <v>44634</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" t="s">
+        <v>31</v>
+      </c>
+      <c r="E105">
         <v>13</v>
       </c>
-      <c r="C105" s="4">
+      <c r="F105">
         <v>552</v>
       </c>
-      <c r="D105" s="4">
+      <c r="G105">
         <v>1341</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
-      <c r="A106" s="3">
+      <c r="H105">
+        <v>13</v>
+      </c>
+      <c r="I105">
+        <v>2.639057329615258</v>
+      </c>
+      <c r="J105">
+        <v>6.315358001522335</v>
+      </c>
+      <c r="K105">
+        <v>7.201916317531627</v>
+      </c>
+      <c r="L105">
+        <v>0.386240232358773</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="2">
         <v>44635</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" t="s">
         <v>15</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" t="s">
+        <v>32</v>
+      </c>
+      <c r="E106">
+        <v>15</v>
+      </c>
+      <c r="F106">
         <v>514</v>
       </c>
-      <c r="D106" s="4">
+      <c r="G106">
         <v>1223</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
-      <c r="A107" s="3">
+      <c r="H106">
+        <v>15</v>
+      </c>
+      <c r="I106">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="J106">
+        <v>6.244166900663736</v>
+      </c>
+      <c r="K106">
+        <v>7.109879463072271</v>
+      </c>
+      <c r="L106">
+        <v>-0.8231121514321913</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="2">
         <v>44636</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107">
         <v>17</v>
       </c>
-      <c r="C107" s="4">
+      <c r="F107">
         <v>471</v>
       </c>
-      <c r="D107" s="4">
+      <c r="G107">
         <v>1439</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="3">
+      <c r="H107">
+        <v>17</v>
+      </c>
+      <c r="I107">
+        <v>2.890371757896165</v>
+      </c>
+      <c r="J107">
+        <v>6.156978985585555</v>
+      </c>
+      <c r="K107">
+        <v>7.272398392570047</v>
+      </c>
+      <c r="L107">
+        <v>-0.9690336832985622</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="2">
         <v>44637</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" t="s">
+        <v>27</v>
+      </c>
+      <c r="E108">
+        <v>15</v>
+      </c>
+      <c r="F108">
         <v>472</v>
       </c>
-      <c r="D108" s="4">
+      <c r="G108">
         <v>1225</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="3">
+      <c r="H108">
+        <v>15</v>
+      </c>
+      <c r="I108">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="J108">
+        <v>6.159095388491933</v>
+      </c>
+      <c r="K108">
+        <v>7.111512116496157</v>
+      </c>
+      <c r="L108">
+        <v>0.02302656818972437</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="2">
         <v>44638</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109">
         <v>19</v>
       </c>
-      <c r="C109" s="4">
+      <c r="F109">
         <v>372</v>
       </c>
-      <c r="D109" s="4">
+      <c r="G109">
         <v>2442</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="3">
+      <c r="H109">
+        <v>19</v>
+      </c>
+      <c r="I109">
+        <v>2.995732273553991</v>
+      </c>
+      <c r="J109">
+        <v>5.921578419643816</v>
+      </c>
+      <c r="K109">
+        <v>7.80098207125774</v>
+      </c>
+      <c r="L109">
+        <v>-2.438259460414521</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="2">
         <v>44639</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110">
         <v>25</v>
       </c>
-      <c r="C110" s="4">
+      <c r="F110">
         <v>480</v>
       </c>
-      <c r="D110" s="4">
+      <c r="G110">
         <v>2372</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
-      <c r="A111" s="3">
+      <c r="H110">
+        <v>25</v>
+      </c>
+      <c r="I110">
+        <v>3.258096538021482</v>
+      </c>
+      <c r="J110">
+        <v>6.175867270105761</v>
+      </c>
+      <c r="K110">
+        <v>7.771910256435763</v>
+      </c>
+      <c r="L110">
+        <v>2.621600778220735</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="2">
         <v>44640</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
         <v>22</v>
       </c>
-      <c r="C111" s="4">
+      <c r="D111" t="s">
+        <v>30</v>
+      </c>
+      <c r="E111">
+        <v>22</v>
+      </c>
+      <c r="F111">
         <v>502</v>
       </c>
-      <c r="D111" s="4">
+      <c r="G111">
         <v>2572</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
-      <c r="A112" s="3">
+      <c r="H111">
+        <v>22</v>
+      </c>
+      <c r="I111">
+        <v>3.13549421592915</v>
+      </c>
+      <c r="J111">
+        <v>6.220590170099739</v>
+      </c>
+      <c r="K111">
+        <v>7.852827812281745</v>
+      </c>
+      <c r="L111">
+        <v>0.4964542022014342</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="2">
         <v>44641</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112">
         <v>25</v>
       </c>
-      <c r="C112" s="4">
+      <c r="F112">
         <v>532</v>
       </c>
-      <c r="D112" s="4">
+      <c r="G112">
         <v>2000</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
-      <c r="A113" s="3">
+      <c r="H112">
+        <v>25</v>
+      </c>
+      <c r="I112">
+        <v>3.258096538021482</v>
+      </c>
+      <c r="J112">
+        <v>6.278521424165844</v>
+      </c>
+      <c r="K112">
+        <v>7.601402334583733</v>
+      </c>
+      <c r="L112">
+        <v>0.6597686869335142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="2">
         <v>44642</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" t="s">
+        <v>32</v>
+      </c>
+      <c r="E113">
         <v>7</v>
       </c>
-      <c r="C113" s="4">
+      <c r="F113">
         <v>522</v>
       </c>
-      <c r="D113" s="4">
+      <c r="G113">
         <v>1336</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
-      <c r="A114" s="3">
+      <c r="H113">
+        <v>7</v>
+      </c>
+      <c r="I113">
+        <v>2.079441541679836</v>
+      </c>
+      <c r="J113">
+        <v>6.259581464064923</v>
+      </c>
+      <c r="K113">
+        <v>7.198183577101943</v>
+      </c>
+      <c r="L113">
+        <v>-0.2178058717498672</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="2">
         <v>44643</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" t="s">
         <v>15</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114">
+        <v>15</v>
+      </c>
+      <c r="F114">
         <v>483</v>
       </c>
-      <c r="D114" s="4">
+      <c r="G114">
         <v>1760</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
-      <c r="A115" s="3">
+      <c r="H114">
+        <v>15</v>
+      </c>
+      <c r="I114">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="J114">
+        <v>6.182084906716632</v>
+      </c>
+      <c r="K114">
+        <v>7.473637108496206</v>
+      </c>
+      <c r="L114">
+        <v>-0.870058341755815</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="2">
         <v>44644</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115">
         <v>32</v>
       </c>
-      <c r="C115" s="4">
+      <c r="F115">
         <v>547</v>
       </c>
-      <c r="D115" s="4">
+      <c r="G115">
         <v>1321</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
-      <c r="A116" s="3">
+      <c r="H115">
+        <v>30.66999999999999</v>
+      </c>
+      <c r="I115">
+        <v>3.49650756146648</v>
+      </c>
+      <c r="J115">
+        <v>6.306275286948016</v>
+      </c>
+      <c r="K115">
+        <v>7.186901020411631</v>
+      </c>
+      <c r="L115">
+        <v>1.41077015121709</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="2">
         <v>44645</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116">
         <v>24</v>
       </c>
-      <c r="C116" s="4">
+      <c r="F116">
         <v>470</v>
       </c>
-      <c r="D116" s="4">
+      <c r="G116">
         <v>1462</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
-      <c r="A117" s="3">
+      <c r="H116">
+        <v>24</v>
+      </c>
+      <c r="I116">
+        <v>3.218875824868201</v>
+      </c>
+      <c r="J116">
+        <v>6.154858094016418</v>
+      </c>
+      <c r="K116">
+        <v>7.288244401020124</v>
+      </c>
+      <c r="L116">
+        <v>-1.7085477383742</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="2">
         <v>44646</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117">
         <v>24</v>
       </c>
-      <c r="C117" s="4">
+      <c r="F117">
         <v>502</v>
       </c>
-      <c r="D117" s="4">
+      <c r="G117">
         <v>2136</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
-      <c r="A118" s="3">
+      <c r="H117">
+        <v>24</v>
+      </c>
+      <c r="I117">
+        <v>3.218875824868201</v>
+      </c>
+      <c r="J117">
+        <v>6.220590170099739</v>
+      </c>
+      <c r="K117">
+        <v>7.667158255319148</v>
+      </c>
+      <c r="L117">
+        <v>0.7258731137292784</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="2">
         <v>44647</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" t="s">
+        <v>30</v>
+      </c>
+      <c r="E118">
         <v>21</v>
       </c>
-      <c r="C118" s="4">
+      <c r="F118">
         <v>497</v>
       </c>
-      <c r="D118" s="4">
+      <c r="G118">
         <v>2360</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
-      <c r="A119" s="3">
+      <c r="H118">
+        <v>21</v>
+      </c>
+      <c r="I118">
+        <v>3.091042453358316</v>
+      </c>
+      <c r="J118">
+        <v>6.210600077024653</v>
+      </c>
+      <c r="K118">
+        <v>7.766840537085513</v>
+      </c>
+      <c r="L118">
+        <v>-0.1118596928001239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="2">
         <v>44648</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119">
         <v>21</v>
       </c>
-      <c r="C119" s="4">
+      <c r="F119">
         <v>486</v>
       </c>
-      <c r="D119" s="4">
+      <c r="G119">
         <v>1640</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
-      <c r="A120" s="3">
+      <c r="H119">
+        <v>21</v>
+      </c>
+      <c r="I119">
+        <v>3.091042453358316</v>
+      </c>
+      <c r="J119">
+        <v>6.18826412308259</v>
+      </c>
+      <c r="K119">
+        <v>7.403061091090091</v>
+      </c>
+      <c r="L119">
+        <v>-0.2480891245593533</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="2">
         <v>44649</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" t="s">
+        <v>32</v>
+      </c>
+      <c r="E120">
         <v>18</v>
       </c>
-      <c r="C120" s="4">
+      <c r="F120">
         <v>514</v>
       </c>
-      <c r="D120" s="4">
+      <c r="G120">
         <v>2038</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
-      <c r="A121" s="3">
+      <c r="H120">
+        <v>18</v>
+      </c>
+      <c r="I120">
+        <v>2.94443897916644</v>
+      </c>
+      <c r="J120">
+        <v>6.244166900663736</v>
+      </c>
+      <c r="K120">
+        <v>7.620214770574455</v>
+      </c>
+      <c r="L120">
+        <v>0.626160412460667</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="2">
         <v>44650</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" t="s">
+        <v>26</v>
+      </c>
+      <c r="E121">
         <v>19</v>
       </c>
-      <c r="C121" s="4">
+      <c r="F121">
         <v>431</v>
       </c>
-      <c r="D121" s="4">
+      <c r="G121">
         <v>2479</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
-      <c r="A122" s="3">
+      <c r="H121">
+        <v>19</v>
+      </c>
+      <c r="I121">
+        <v>2.995732273553991</v>
+      </c>
+      <c r="J121">
+        <v>6.068425588244111</v>
+      </c>
+      <c r="K121">
+        <v>7.816013839159027</v>
+      </c>
+      <c r="L121">
+        <v>-1.911028605482574</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="2">
         <v>44651</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122" t="s">
+        <v>27</v>
+      </c>
+      <c r="E122">
         <v>14</v>
       </c>
-      <c r="C122" s="4">
+      <c r="F122">
         <v>464</v>
       </c>
-      <c r="D122" s="4">
+      <c r="G122">
         <v>1961</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
-      <c r="A123" s="3">
+      <c r="H122">
+        <v>14</v>
+      </c>
+      <c r="I122">
+        <v>2.70805020110221</v>
+      </c>
+      <c r="J122">
+        <v>6.142037405587356</v>
+      </c>
+      <c r="K122">
+        <v>7.581719640125308</v>
+      </c>
+      <c r="L122">
+        <v>0.7801197365113204</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="2">
         <v>44652</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123">
         <v>9</v>
       </c>
-      <c r="C123" s="4">
+      <c r="F123">
         <v>545</v>
       </c>
-      <c r="D123" s="4">
+      <c r="G123">
         <v>2326</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
-      <c r="A124" s="3">
+      <c r="H123">
+        <v>9</v>
+      </c>
+      <c r="I123">
+        <v>2.302585092994046</v>
+      </c>
+      <c r="J123">
+        <v>6.302618975744905</v>
+      </c>
+      <c r="K123">
+        <v>7.752335163302292</v>
+      </c>
+      <c r="L123">
+        <v>1.80457583131949</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="2">
         <v>44653</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" t="s">
+        <v>29</v>
+      </c>
+      <c r="E124">
         <v>21</v>
       </c>
-      <c r="C124" s="4">
+      <c r="F124">
         <v>527</v>
       </c>
-      <c r="D124" s="4">
+      <c r="G124">
         <v>2434</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
-      <c r="A125" s="3">
+      <c r="H124">
+        <v>21</v>
+      </c>
+      <c r="I124">
+        <v>3.091042453358316</v>
+      </c>
+      <c r="J124">
+        <v>6.269096283706261</v>
+      </c>
+      <c r="K124">
+        <v>7.79770203551669</v>
+      </c>
+      <c r="L124">
+        <v>-0.3887544933595102</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="2">
         <v>44654</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" t="s">
+        <v>30</v>
+      </c>
+      <c r="E125">
         <v>24</v>
       </c>
-      <c r="C125" s="4">
+      <c r="F125">
         <v>501</v>
       </c>
-      <c r="D125" s="4">
+      <c r="G125">
         <v>2208</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
-      <c r="A126" s="3">
+      <c r="H125">
+        <v>24</v>
+      </c>
+      <c r="I125">
+        <v>3.218875824868201</v>
+      </c>
+      <c r="J125">
+        <v>6.218600119691729</v>
+      </c>
+      <c r="K125">
+        <v>7.700295203420117</v>
+      </c>
+      <c r="L125">
+        <v>-0.5734512808986025</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="2">
         <v>44655</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" t="s">
+        <v>31</v>
+      </c>
+      <c r="E126">
         <v>17</v>
       </c>
-      <c r="C126" s="4">
+      <c r="F126">
         <v>498</v>
       </c>
-      <c r="D126" s="4">
+      <c r="G126">
         <v>2348</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
-      <c r="A127" s="3">
+      <c r="H126">
+        <v>17</v>
+      </c>
+      <c r="I126">
+        <v>2.890371757896165</v>
+      </c>
+      <c r="J126">
+        <v>6.212606095751519</v>
+      </c>
+      <c r="K126">
+        <v>7.761744984658913</v>
+      </c>
+      <c r="L126">
+        <v>-0.06711568117799516</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="2">
         <v>44656</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" t="s">
+        <v>32</v>
+      </c>
+      <c r="E127">
         <v>21</v>
       </c>
-      <c r="C127" s="4">
+      <c r="F127">
         <v>456</v>
       </c>
-      <c r="D127" s="4">
+      <c r="G127">
         <v>2252</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
-      <c r="A128" s="3">
+      <c r="H127">
+        <v>21</v>
+      </c>
+      <c r="I127">
+        <v>3.091042453358316</v>
+      </c>
+      <c r="J127">
+        <v>6.124683390894205</v>
+      </c>
+      <c r="K127">
+        <v>7.720017940432244</v>
+      </c>
+      <c r="L127">
+        <v>-0.9617571003587742</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="2">
         <v>44657</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128">
         <v>20</v>
       </c>
-      <c r="C128" s="4">
+      <c r="F128">
         <v>485</v>
       </c>
-      <c r="D128" s="4">
+      <c r="G128">
         <v>2293</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
-      <c r="A129" s="3">
+      <c r="H128">
+        <v>20</v>
+      </c>
+      <c r="I128">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="J128">
+        <v>6.186208623900494</v>
+      </c>
+      <c r="K128">
+        <v>7.738052297689316</v>
+      </c>
+      <c r="L128">
+        <v>0.6685590414826166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="2">
         <v>44658</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129">
         <v>21</v>
       </c>
-      <c r="C129" s="4">
+      <c r="F129">
         <v>464</v>
       </c>
-      <c r="D129" s="4">
+      <c r="G129">
         <v>1965</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
-      <c r="A130" s="3">
+      <c r="H129">
+        <v>21</v>
+      </c>
+      <c r="I129">
+        <v>3.091042453358316</v>
+      </c>
+      <c r="J129">
+        <v>6.142037405587356</v>
+      </c>
+      <c r="K129">
+        <v>7.583756300707112</v>
+      </c>
+      <c r="L129">
+        <v>-0.4820563170072241</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="2">
         <v>44659</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" t="s">
+        <v>23</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130">
         <v>17</v>
       </c>
-      <c r="C130" s="4">
+      <c r="F130">
         <v>521</v>
       </c>
-      <c r="D130" s="4">
+      <c r="G130">
         <v>1932</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
-      <c r="A131" s="3">
+      <c r="H130">
+        <v>17</v>
+      </c>
+      <c r="I130">
+        <v>2.890371757896165</v>
+      </c>
+      <c r="J130">
+        <v>6.257667587882639</v>
+      </c>
+      <c r="K130">
+        <v>7.566828479208331</v>
+      </c>
+      <c r="L130">
+        <v>1.284765192488639</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="2">
         <v>44660</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131">
         <v>24</v>
       </c>
-      <c r="C131" s="4">
+      <c r="F131">
         <v>492</v>
       </c>
-      <c r="D131" s="4">
+      <c r="G131">
         <v>2235</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
-      <c r="A132" s="3">
+      <c r="H131">
+        <v>24</v>
+      </c>
+      <c r="I131">
+        <v>3.218875824868201</v>
+      </c>
+      <c r="J131">
+        <v>6.20050917404269</v>
+      </c>
+      <c r="K131">
+        <v>7.71244383427499</v>
+      </c>
+      <c r="L131">
+        <v>-0.6443514082078181</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="2">
         <v>44661</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" t="s">
+        <v>30</v>
+      </c>
+      <c r="E132">
         <v>22</v>
       </c>
-      <c r="C132" s="4">
+      <c r="F132">
         <v>593</v>
       </c>
-      <c r="D132" s="4">
+      <c r="G132">
         <v>2071</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
-      <c r="A133" s="3">
+      <c r="H132">
+        <v>22</v>
+      </c>
+      <c r="I132">
+        <v>3.13549421592915</v>
+      </c>
+      <c r="J132">
+        <v>6.386879319362645</v>
+      </c>
+      <c r="K132">
+        <v>7.636269603379374</v>
+      </c>
+      <c r="L132">
+        <v>2.170518310953007</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="2">
         <v>44662</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133" t="s">
+        <v>31</v>
+      </c>
+      <c r="E133">
         <v>24</v>
       </c>
-      <c r="C133" s="4">
+      <c r="F133">
         <v>578</v>
       </c>
-      <c r="D133" s="4">
+      <c r="G133">
         <v>1735</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
-      <c r="A134" s="3">
+      <c r="H133">
+        <v>24</v>
+      </c>
+      <c r="I133">
+        <v>3.218875824868201</v>
+      </c>
+      <c r="J133">
+        <v>6.361302477572996</v>
+      </c>
+      <c r="K133">
+        <v>7.459338895220296</v>
+      </c>
+      <c r="L133">
+        <v>-0.3099607634292276</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="2">
         <v>44663</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" t="s">
+        <v>23</v>
+      </c>
+      <c r="D134" t="s">
+        <v>32</v>
+      </c>
+      <c r="E134">
         <v>19</v>
       </c>
-      <c r="C134" s="4">
+      <c r="F134">
         <v>506</v>
       </c>
-      <c r="D134" s="4">
+      <c r="G134">
         <v>1710</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
-      <c r="A135" s="3">
+      <c r="H134">
+        <v>19</v>
+      </c>
+      <c r="I134">
+        <v>2.995732273553991</v>
+      </c>
+      <c r="J134">
+        <v>6.228511003591183</v>
+      </c>
+      <c r="K134">
+        <v>7.444833273892193</v>
+      </c>
+      <c r="L134">
+        <v>-1.547186801938629</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="2">
         <v>44664</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" t="s">
+        <v>23</v>
+      </c>
+      <c r="D135" t="s">
+        <v>26</v>
+      </c>
+      <c r="E135">
         <v>20</v>
       </c>
-      <c r="C135" s="4">
+      <c r="F135">
         <v>506</v>
       </c>
-      <c r="D135" s="4">
+      <c r="G135">
         <v>1778</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
-      <c r="A136" s="3">
+      <c r="H135">
+        <v>20</v>
+      </c>
+      <c r="I135">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="J135">
+        <v>6.228511003591183</v>
+      </c>
+      <c r="K135">
+        <v>7.483806687665835</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="2">
         <v>44665</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136" t="s">
+        <v>23</v>
+      </c>
+      <c r="D136" t="s">
+        <v>27</v>
+      </c>
+      <c r="E136">
         <v>20</v>
       </c>
-      <c r="C136" s="4">
+      <c r="F136">
         <v>544</v>
       </c>
-      <c r="D136" s="4">
+      <c r="G136">
         <v>1385</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
-      <c r="A137" s="3">
+      <c r="H136">
+        <v>20</v>
+      </c>
+      <c r="I136">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="J136">
+        <v>6.300785794663244</v>
+      </c>
+      <c r="K136">
+        <v>7.234177179749849</v>
+      </c>
+      <c r="L136">
+        <v>0.8293638209772176</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="2">
         <v>44666</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" t="s">
+        <v>23</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137">
         <v>21</v>
       </c>
-      <c r="C137" s="4">
+      <c r="F137">
         <v>557</v>
       </c>
-      <c r="D137" s="4">
+      <c r="G137">
         <v>1466</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
-      <c r="A138" s="3">
+      <c r="H137">
+        <v>21</v>
+      </c>
+      <c r="I137">
+        <v>3.091042453358316</v>
+      </c>
+      <c r="J137">
+        <v>6.324358962381311</v>
+      </c>
+      <c r="K137">
+        <v>7.290974778142981</v>
+      </c>
+      <c r="L137">
+        <v>0.2770398630306907</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="2">
         <v>44667</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138" t="s">
+        <v>29</v>
+      </c>
+      <c r="E138">
         <v>11</v>
       </c>
-      <c r="C138" s="4">
+      <c r="F138">
         <v>346</v>
       </c>
-      <c r="D138" s="4">
+      <c r="G138">
         <v>1568</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
-      <c r="A139" s="3">
+      <c r="H138">
+        <v>11</v>
+      </c>
+      <c r="I138">
+        <v>2.484906649788</v>
+      </c>
+      <c r="J138">
+        <v>5.849324779946859</v>
+      </c>
+      <c r="K138">
+        <v>7.358193752733032</v>
+      </c>
+      <c r="L138">
+        <v>-4.999772204673619</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="2">
         <v>44668</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139" t="s">
+        <v>30</v>
+      </c>
+      <c r="E139">
         <v>26</v>
       </c>
-      <c r="C139" s="4">
+      <c r="F139">
         <v>573</v>
       </c>
-      <c r="D139" s="4">
+      <c r="G139">
         <v>2004</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
-      <c r="A140" s="3">
+      <c r="H139">
+        <v>26</v>
+      </c>
+      <c r="I139">
+        <v>3.295836866004329</v>
+      </c>
+      <c r="J139">
+        <v>6.352629396319567</v>
+      </c>
+      <c r="K139">
+        <v>7.60339933974067</v>
+      </c>
+      <c r="L139">
+        <v>5.336343169433373</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="2">
         <v>44669</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" t="s">
+        <v>23</v>
+      </c>
+      <c r="D140" t="s">
         <v>31</v>
       </c>
-      <c r="C140" s="4">
+      <c r="E140">
+        <v>31</v>
+      </c>
+      <c r="F140">
         <v>538</v>
       </c>
-      <c r="D140" s="4">
+      <c r="G140">
         <v>1875</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
-      <c r="A141" s="3">
+      <c r="H140">
+        <v>31</v>
+      </c>
+      <c r="I140">
+        <v>3.465735902799727</v>
+      </c>
+      <c r="J140">
+        <v>6.289715570908998</v>
+      </c>
+      <c r="K140">
+        <v>7.53689712956617</v>
+      </c>
+      <c r="L140">
+        <v>-0.7425913976852456</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="2">
         <v>44670</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" t="s">
         <v>16</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141" t="s">
+        <v>32</v>
+      </c>
+      <c r="E141">
+        <v>16</v>
+      </c>
+      <c r="F141">
         <v>547</v>
       </c>
-      <c r="D141" s="4">
+      <c r="G141">
         <v>1836</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
-      <c r="A142" s="3">
+      <c r="H141">
+        <v>16</v>
+      </c>
+      <c r="I141">
+        <v>2.833213344056216</v>
+      </c>
+      <c r="J141">
+        <v>6.306275286948016</v>
+      </c>
+      <c r="K141">
+        <v>7.515889085215125</v>
+      </c>
+      <c r="L141">
+        <v>0.1932041175665979</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="2">
         <v>44671</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" t="s">
         <v>16</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" t="s">
+        <v>23</v>
+      </c>
+      <c r="D142" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142">
+        <v>16</v>
+      </c>
+      <c r="F142">
         <v>567</v>
       </c>
-      <c r="D142" s="4">
+      <c r="G142">
         <v>1223</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
-      <c r="A143" s="3">
+      <c r="H142">
+        <v>16</v>
+      </c>
+      <c r="I142">
+        <v>2.833213344056216</v>
+      </c>
+      <c r="J142">
+        <v>6.342121418721152</v>
+      </c>
+      <c r="K142">
+        <v>7.109879463072271</v>
+      </c>
+      <c r="L142">
+        <v>0.4237306725283148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="2">
         <v>44672</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" t="s">
+        <v>23</v>
+      </c>
+      <c r="D143" t="s">
+        <v>27</v>
+      </c>
+      <c r="E143">
         <v>30</v>
       </c>
-      <c r="C143" s="4">
+      <c r="F143">
         <v>556</v>
       </c>
-      <c r="D143" s="4">
+      <c r="G143">
         <v>1215</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
-      <c r="A144" s="3">
+      <c r="H143">
+        <v>30</v>
+      </c>
+      <c r="I143">
+        <v>3.433987204485146</v>
+      </c>
+      <c r="J143">
+        <v>6.322565239927284</v>
+      </c>
+      <c r="K143">
+        <v>7.103322062526113</v>
+      </c>
+      <c r="L143">
+        <v>-0.2321095544781251</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="2">
         <v>44673</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144">
         <v>36</v>
       </c>
-      <c r="C144" s="4">
+      <c r="F144">
         <v>470</v>
       </c>
-      <c r="D144" s="4">
+      <c r="G144">
         <v>1163</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
-      <c r="A145" s="3">
+      <c r="H144">
+        <v>30.66999999999999</v>
+      </c>
+      <c r="I144">
+        <v>3.610917912644224</v>
+      </c>
+      <c r="J144">
+        <v>6.154858094016418</v>
+      </c>
+      <c r="K144">
+        <v>7.059617628291383</v>
+      </c>
+      <c r="L144">
+        <v>-1.90016885642439</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="2">
         <v>44674</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" t="s">
         <v>16</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145" t="s">
+        <v>29</v>
+      </c>
+      <c r="E145">
+        <v>16</v>
+      </c>
+      <c r="F145">
         <v>446</v>
       </c>
-      <c r="D145" s="4">
+      <c r="G145">
         <v>1886</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
-      <c r="A146" s="3">
+      <c r="H145">
+        <v>16</v>
+      </c>
+      <c r="I145">
+        <v>2.833213344056216</v>
+      </c>
+      <c r="J145">
+        <v>6.102558594613569</v>
+      </c>
+      <c r="K145">
+        <v>7.54274354536855</v>
+      </c>
+      <c r="L145">
+        <v>-0.5607713067359263</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="2">
         <v>44675</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" t="s">
+        <v>16</v>
+      </c>
+      <c r="C146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D146" t="s">
+        <v>30</v>
+      </c>
+      <c r="E146">
         <v>17</v>
       </c>
-      <c r="C146" s="4">
+      <c r="F146">
         <v>518</v>
       </c>
-      <c r="D146" s="4">
+      <c r="G146">
         <v>1916</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
-      <c r="A147" s="3">
+      <c r="H146">
+        <v>17</v>
+      </c>
+      <c r="I146">
+        <v>2.890371757896165</v>
+      </c>
+      <c r="J146">
+        <v>6.251903883165888</v>
+      </c>
+      <c r="K146">
+        <v>7.558516743045645</v>
+      </c>
+      <c r="L146">
+        <v>1.64090127153921</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="2">
         <v>44676</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" t="s">
+        <v>16</v>
+      </c>
+      <c r="C147" t="s">
         <v>23</v>
       </c>
-      <c r="C147" s="4">
+      <c r="D147" t="s">
+        <v>31</v>
+      </c>
+      <c r="E147">
+        <v>23</v>
+      </c>
+      <c r="F147">
         <v>305</v>
       </c>
-      <c r="D147" s="4">
+      <c r="G147">
         <v>1513</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
-      <c r="A148" s="3">
+      <c r="H147">
+        <v>23</v>
+      </c>
+      <c r="I147">
+        <v>3.178053830347946</v>
+      </c>
+      <c r="J147">
+        <v>5.723585101952381</v>
+      </c>
+      <c r="K147">
+        <v>7.322510433997394</v>
+      </c>
+      <c r="L147">
+        <v>-5.295364156909105</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="2">
         <v>44677</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148" t="s">
+        <v>23</v>
+      </c>
+      <c r="D148" t="s">
+        <v>32</v>
+      </c>
+      <c r="E148">
         <v>17</v>
       </c>
-      <c r="C148" s="4">
+      <c r="F148">
         <v>115</v>
       </c>
-      <c r="D148" s="4">
+      <c r="G148">
         <v>1130</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
-      <c r="A149" s="3">
+      <c r="H148">
+        <v>17</v>
+      </c>
+      <c r="I148">
+        <v>2.890371757896165</v>
+      </c>
+      <c r="J148">
+        <v>4.753590191106364</v>
+      </c>
+      <c r="K148">
+        <v>7.030857476116121</v>
+      </c>
+      <c r="L148">
+        <v>-6.740443901809371</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="2">
         <v>44678</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149" t="s">
+        <v>23</v>
+      </c>
+      <c r="D149" t="s">
+        <v>26</v>
+      </c>
+      <c r="E149">
         <v>14</v>
       </c>
-      <c r="C149" s="4">
+      <c r="F149">
         <v>154</v>
       </c>
-      <c r="D149" s="4">
+      <c r="G149">
         <v>1430</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
-      <c r="A150" s="3">
+      <c r="H149">
+        <v>14</v>
+      </c>
+      <c r="I149">
+        <v>2.70805020110221</v>
+      </c>
+      <c r="J149">
+        <v>5.043425116919247</v>
+      </c>
+      <c r="K149">
+        <v>7.266128779556451</v>
+      </c>
+      <c r="L149">
+        <v>1.685868351227249</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="2">
         <v>44679</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" t="s">
+        <v>23</v>
+      </c>
+      <c r="D150" t="s">
+        <v>27</v>
+      </c>
+      <c r="E150">
         <v>12</v>
       </c>
-      <c r="C150" s="4">
+      <c r="F150">
         <v>159</v>
       </c>
-      <c r="D150" s="4">
+      <c r="G150">
         <v>1243</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
-      <c r="A151" s="3">
+      <c r="H150">
+        <v>12</v>
+      </c>
+      <c r="I150">
+        <v>2.564949357461537</v>
+      </c>
+      <c r="J150">
+        <v>5.075173815233827</v>
+      </c>
+      <c r="K150">
+        <v>7.126087273299125</v>
+      </c>
+      <c r="L150">
+        <v>0.1998465669276346</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="2">
         <v>44680</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" t="s">
+        <v>16</v>
+      </c>
+      <c r="C151" t="s">
+        <v>23</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151">
         <v>11</v>
       </c>
-      <c r="C151" s="4">
+      <c r="F151">
         <v>131</v>
       </c>
-      <c r="D151" s="4">
+      <c r="G151">
         <v>1323</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
-      <c r="A152" s="3">
+      <c r="H151">
+        <v>11</v>
+      </c>
+      <c r="I151">
+        <v>2.484906649788</v>
+      </c>
+      <c r="J151">
+        <v>4.882801922586371</v>
+      </c>
+      <c r="K151">
+        <v>7.188412736496954</v>
+      </c>
+      <c r="L151">
+        <v>-1.163997070658894</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="2">
         <v>44681</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" t="s">
+        <v>16</v>
+      </c>
+      <c r="C152" t="s">
         <v>23</v>
       </c>
-      <c r="C152" s="4">
+      <c r="D152" t="s">
+        <v>29</v>
+      </c>
+      <c r="E152">
+        <v>23</v>
+      </c>
+      <c r="F152">
         <v>282</v>
       </c>
-      <c r="D152" s="4">
+      <c r="G152">
         <v>1394</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
-      <c r="A153" s="3">
+      <c r="H152">
+        <v>23</v>
+      </c>
+      <c r="I152">
+        <v>3.178053830347946</v>
+      </c>
+      <c r="J152">
+        <v>5.645446897643238</v>
+      </c>
+      <c r="K152">
+        <v>7.240649694255466</v>
+      </c>
+      <c r="L152">
+        <v>5.347332481487067</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="2">
         <v>44682</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" t="s">
+        <v>24</v>
+      </c>
+      <c r="D153" t="s">
+        <v>30</v>
+      </c>
+      <c r="E153">
         <v>9</v>
       </c>
-      <c r="C153" s="4">
+      <c r="F153">
         <v>274</v>
       </c>
-      <c r="D153" s="4">
+      <c r="G153">
         <v>1834</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
-      <c r="A154" s="3">
+      <c r="H153">
+        <v>9</v>
+      </c>
+      <c r="I153">
+        <v>2.302585092994046</v>
+      </c>
+      <c r="J153">
+        <v>5.616771097666572</v>
+      </c>
+      <c r="K153">
+        <v>7.51479976048867</v>
+      </c>
+      <c r="L153">
+        <v>-0.2399102664998161</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="2">
         <v>44683</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" t="s">
+        <v>17</v>
+      </c>
+      <c r="C154" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154" t="s">
+        <v>31</v>
+      </c>
+      <c r="E154">
         <v>19</v>
       </c>
-      <c r="C154" s="4">
+      <c r="F154">
         <v>154</v>
       </c>
-      <c r="D154" s="4">
+      <c r="G154">
         <v>1906</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
-      <c r="A155" s="3">
+      <c r="H154">
+        <v>19</v>
+      </c>
+      <c r="I154">
+        <v>2.995732273553991</v>
+      </c>
+      <c r="J154">
+        <v>5.043425116919247</v>
+      </c>
+      <c r="K154">
+        <v>7.553286605600419</v>
+      </c>
+      <c r="L154">
+        <v>-4.143271711255991</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="2">
         <v>44684</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" t="s">
+        <v>24</v>
+      </c>
+      <c r="D155" t="s">
+        <v>32</v>
+      </c>
+      <c r="E155">
         <v>25</v>
       </c>
-      <c r="C155" s="4">
+      <c r="F155">
         <v>133</v>
       </c>
-      <c r="D155" s="4">
+      <c r="G155">
         <v>1743</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
-      <c r="A156" s="3">
+      <c r="H155">
+        <v>25</v>
+      </c>
+      <c r="I155">
+        <v>3.258096538021482</v>
+      </c>
+      <c r="J155">
+        <v>4.897839799950911</v>
+      </c>
+      <c r="K155">
+        <v>7.463936604468925</v>
+      </c>
+      <c r="L155">
+        <v>-0.8771110513200604</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="2">
         <v>44685</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156" t="s">
+        <v>26</v>
+      </c>
+      <c r="E156">
         <v>16</v>
       </c>
-      <c r="C156" s="4">
+      <c r="F156">
         <v>122</v>
       </c>
-      <c r="D156" s="4">
+      <c r="G156">
         <v>1566</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
-      <c r="A157" s="3">
+      <c r="H156">
+        <v>16</v>
+      </c>
+      <c r="I156">
+        <v>2.833213344056216</v>
+      </c>
+      <c r="J156">
+        <v>4.812184355372417</v>
+      </c>
+      <c r="K156">
+        <v>7.356918242356021</v>
+      </c>
+      <c r="L156">
+        <v>-0.4872015774835354</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="2">
         <v>44686</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" t="s">
+        <v>24</v>
+      </c>
+      <c r="D157" t="s">
+        <v>27</v>
+      </c>
+      <c r="E157">
         <v>18</v>
       </c>
-      <c r="C157" s="4">
+      <c r="F157">
         <v>238</v>
       </c>
-      <c r="D157" s="4">
+      <c r="G157">
         <v>1197</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
-      <c r="A158" s="3">
+      <c r="H157">
+        <v>18</v>
+      </c>
+      <c r="I157">
+        <v>2.94443897916644</v>
+      </c>
+      <c r="J157">
+        <v>5.476463551931511</v>
+      </c>
+      <c r="K157">
+        <v>7.088408778675395</v>
+      </c>
+      <c r="L157">
+        <v>4.381887603354251</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="2">
         <v>44687</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" t="s">
+        <v>24</v>
+      </c>
+      <c r="D158" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158">
         <v>14</v>
       </c>
-      <c r="C158" s="4">
+      <c r="F158">
         <v>106</v>
       </c>
-      <c r="D158" s="4">
+      <c r="G158">
         <v>1624</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
-      <c r="A159" s="3">
+      <c r="H158">
+        <v>14</v>
+      </c>
+      <c r="I158">
+        <v>2.70805020110221</v>
+      </c>
+      <c r="J158">
+        <v>4.672828834461906</v>
+      </c>
+      <c r="K158">
+        <v>7.393263094763838</v>
+      </c>
+      <c r="L158">
+        <v>-5.131618479554511</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="2">
         <v>44688</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" t="s">
+        <v>24</v>
+      </c>
+      <c r="D159" t="s">
+        <v>29</v>
+      </c>
+      <c r="E159">
         <v>21</v>
       </c>
-      <c r="C159" s="4">
+      <c r="F159">
         <v>78</v>
       </c>
-      <c r="D159" s="4">
+      <c r="G159">
         <v>1822</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
-      <c r="A160" s="3">
+      <c r="H159">
+        <v>21</v>
+      </c>
+      <c r="I159">
+        <v>3.091042453358316</v>
+      </c>
+      <c r="J159">
+        <v>4.369447852467021</v>
+      </c>
+      <c r="K159">
+        <v>7.508238774678663</v>
+      </c>
+      <c r="L159">
+        <v>-1.463869274659153</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" s="2">
         <v>44689</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160" t="s">
+        <v>30</v>
+      </c>
+      <c r="E160">
         <v>14</v>
       </c>
-      <c r="C160" s="4">
+      <c r="F160">
         <v>215</v>
       </c>
-      <c r="D160" s="4">
+      <c r="G160">
         <v>1545</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
-      <c r="A161" s="3">
+      <c r="H160">
+        <v>14</v>
+      </c>
+      <c r="I160">
+        <v>2.70805020110221</v>
+      </c>
+      <c r="J160">
+        <v>5.375278407684165</v>
+      </c>
+      <c r="K160">
+        <v>7.343426229147367</v>
+      </c>
+      <c r="L160">
+        <v>5.831117432287332</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="2">
         <v>44690</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" t="s">
+        <v>24</v>
+      </c>
+      <c r="D161" t="s">
+        <v>31</v>
+      </c>
+      <c r="E161">
         <v>15</v>
       </c>
-      <c r="C161" s="4">
+      <c r="F161">
         <v>181</v>
       </c>
-      <c r="D161" s="4">
+      <c r="G161">
         <v>2050</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
-      <c r="A162" s="3">
+      <c r="H161">
+        <v>15</v>
+      </c>
+      <c r="I161">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="J161">
+        <v>5.204006687076795</v>
+      </c>
+      <c r="K161">
+        <v>7.62608275807238</v>
+      </c>
+      <c r="L161">
+        <v>-1.20925425154147</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="2">
         <v>44691</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" t="s">
+        <v>17</v>
+      </c>
+      <c r="C162" t="s">
+        <v>24</v>
+      </c>
+      <c r="D162" t="s">
+        <v>32</v>
+      </c>
+      <c r="E162">
         <v>13</v>
       </c>
-      <c r="C162" s="4">
+      <c r="F162">
         <v>166</v>
       </c>
-      <c r="D162" s="4">
+      <c r="G162">
         <v>1938</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
-      <c r="A163" s="3">
+      <c r="H162">
+        <v>13</v>
+      </c>
+      <c r="I162">
+        <v>2.639057329615258</v>
+      </c>
+      <c r="J162">
+        <v>5.117993812416755</v>
+      </c>
+      <c r="K162">
+        <v>7.569927655242652</v>
+      </c>
+      <c r="L162">
+        <v>-0.5695253203485837</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" s="2">
         <v>44692</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" t="s">
+        <v>17</v>
+      </c>
+      <c r="C163" t="s">
+        <v>24</v>
+      </c>
+      <c r="D163" t="s">
+        <v>26</v>
+      </c>
+      <c r="E163">
         <v>15</v>
       </c>
-      <c r="C163" s="4">
+      <c r="F163">
         <v>221</v>
       </c>
-      <c r="D163" s="4">
+      <c r="G163">
         <v>1382</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
-      <c r="A164" s="3">
+      <c r="H163">
+        <v>15</v>
+      </c>
+      <c r="I163">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="J163">
+        <v>5.402677381872279</v>
+      </c>
+      <c r="K163">
+        <v>7.232010331664759</v>
+      </c>
+      <c r="L163">
+        <v>1.98197002059338</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" s="2">
         <v>44693</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164" t="s">
+        <v>27</v>
+      </c>
+      <c r="E164">
         <v>14</v>
       </c>
-      <c r="C164" s="4">
+      <c r="F164">
         <v>238</v>
       </c>
-      <c r="D164" s="4">
+      <c r="G164">
         <v>1214</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
-      <c r="A165" s="3">
+      <c r="H164">
+        <v>14</v>
+      </c>
+      <c r="I164">
+        <v>2.70805020110221</v>
+      </c>
+      <c r="J164">
+        <v>5.476463551931511</v>
+      </c>
+      <c r="K164">
+        <v>7.102499355774649</v>
+      </c>
+      <c r="L164">
+        <v>0.561179873223006</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" s="2">
         <v>44694</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" t="s">
+        <v>24</v>
+      </c>
+      <c r="D165" t="s">
+        <v>28</v>
+      </c>
+      <c r="E165">
         <v>11</v>
       </c>
-      <c r="C165" s="4">
+      <c r="F165">
         <v>177</v>
       </c>
-      <c r="D165" s="4">
+      <c r="G165">
         <v>1816</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
-      <c r="A166" s="3">
+      <c r="H165">
+        <v>11</v>
+      </c>
+      <c r="I165">
+        <v>2.484906649788</v>
+      </c>
+      <c r="J165">
+        <v>5.181783550292085</v>
+      </c>
+      <c r="K165">
+        <v>7.504942068396171</v>
+      </c>
+      <c r="L165">
+        <v>-2.123113924891442</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" s="2">
         <v>44695</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D166" t="s">
+        <v>29</v>
+      </c>
+      <c r="E166">
         <v>19</v>
       </c>
-      <c r="C166" s="4">
+      <c r="F166">
         <v>260</v>
       </c>
-      <c r="D166" s="4">
+      <c r="G166">
         <v>1771</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
-      <c r="A167" s="3">
+      <c r="H166">
+        <v>19</v>
+      </c>
+      <c r="I166">
+        <v>2.995732273553991</v>
+      </c>
+      <c r="J166">
+        <v>5.564520407322694</v>
+      </c>
+      <c r="K166">
+        <v>7.479864131165026</v>
+      </c>
+      <c r="L166">
+        <v>2.820380800947028</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="2">
         <v>44696</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" t="s">
+        <v>24</v>
+      </c>
+      <c r="D167" t="s">
+        <v>30</v>
+      </c>
+      <c r="E167">
         <v>12</v>
       </c>
-      <c r="C167" s="4">
+      <c r="F167">
         <v>129</v>
       </c>
-      <c r="D167" s="4">
+      <c r="G167">
         <v>1584</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
-      <c r="A168" s="3">
+      <c r="H167">
+        <v>12</v>
+      </c>
+      <c r="I167">
+        <v>2.564949357461537</v>
+      </c>
+      <c r="J167">
+        <v>4.867534450455582</v>
+      </c>
+      <c r="K167">
+        <v>7.368339686311381</v>
+      </c>
+      <c r="L167">
+        <v>-4.766698804996551</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" s="2">
         <v>44697</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168" t="s">
+        <v>17</v>
+      </c>
+      <c r="C168" t="s">
+        <v>24</v>
+      </c>
+      <c r="D168" t="s">
+        <v>31</v>
+      </c>
+      <c r="E168">
         <v>12</v>
       </c>
-      <c r="C168" s="4">
+      <c r="F168">
         <v>156</v>
       </c>
-      <c r="D168" s="4">
+      <c r="G168">
         <v>1459</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
-      <c r="A169" s="3">
+      <c r="H168">
+        <v>12</v>
+      </c>
+      <c r="I168">
+        <v>2.564949357461537</v>
+      </c>
+      <c r="J168">
+        <v>5.056245805348308</v>
+      </c>
+      <c r="K168">
+        <v>7.286191714702382</v>
+      </c>
+      <c r="L168">
+        <v>1.132179305196249</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" s="2">
         <v>44698</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" t="s">
+        <v>17</v>
+      </c>
+      <c r="C169" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169" t="s">
+        <v>32</v>
+      </c>
+      <c r="E169">
         <v>11</v>
       </c>
-      <c r="C169" s="4">
+      <c r="F169">
         <v>109</v>
       </c>
-      <c r="D169" s="4">
+      <c r="G169">
         <v>1232</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
-      <c r="A170" s="3">
+      <c r="H169">
+        <v>11</v>
+      </c>
+      <c r="I169">
+        <v>2.484906649788</v>
+      </c>
+      <c r="J169">
+        <v>4.700480365792417</v>
+      </c>
+      <c r="K169">
+        <v>7.117205503164344</v>
+      </c>
+      <c r="L169">
+        <v>-2.049689487886246</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" s="2">
         <v>44699</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" t="s">
+        <v>24</v>
+      </c>
+      <c r="D170" t="s">
+        <v>26</v>
+      </c>
+      <c r="E170">
         <v>11</v>
       </c>
-      <c r="C170" s="4">
+      <c r="F170">
         <v>107</v>
       </c>
-      <c r="D170" s="4">
+      <c r="G170">
         <v>1578</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
-      <c r="A171" s="3">
+      <c r="H170">
+        <v>11</v>
+      </c>
+      <c r="I170">
+        <v>2.484906649788</v>
+      </c>
+      <c r="J170">
+        <v>4.68213122712422</v>
+      </c>
+      <c r="K170">
+        <v>7.364547014255642</v>
+      </c>
+      <c r="L170">
+        <v>-0.09622607612194933</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" s="2">
         <v>44700</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" t="s">
+        <v>24</v>
+      </c>
+      <c r="D171" t="s">
+        <v>27</v>
+      </c>
+      <c r="E171">
         <v>20</v>
       </c>
-      <c r="C171" s="4">
+      <c r="F171">
         <v>114</v>
       </c>
-      <c r="D171" s="4">
+      <c r="G171">
         <v>1266</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
-      <c r="A172" s="3">
+      <c r="H171">
+        <v>20</v>
+      </c>
+      <c r="I171">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="J171">
+        <v>4.74493212836325</v>
+      </c>
+      <c r="K171">
+        <v>7.144407180321139</v>
+      </c>
+      <c r="L171">
+        <v>0.3329978192427099</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" s="2">
         <v>44701</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172" t="s">
+        <v>17</v>
+      </c>
+      <c r="C172" t="s">
+        <v>24</v>
+      </c>
+      <c r="D172" t="s">
+        <v>28</v>
+      </c>
+      <c r="E172">
         <v>13</v>
       </c>
-      <c r="C172" s="4">
+      <c r="F172">
         <v>113</v>
       </c>
-      <c r="D172" s="4">
+      <c r="G172">
         <v>1629</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
-      <c r="A173" s="3">
+      <c r="H172">
+        <v>13</v>
+      </c>
+      <c r="I172">
+        <v>2.639057329615258</v>
+      </c>
+      <c r="J172">
+        <v>4.736198448394496</v>
+      </c>
+      <c r="K172">
+        <v>7.396335293800808</v>
+      </c>
+      <c r="L172">
+        <v>-0.04693243929666124</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" s="2">
         <v>44702</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B173" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173" t="s">
+        <v>24</v>
+      </c>
+      <c r="D173" t="s">
+        <v>29</v>
+      </c>
+      <c r="E173">
         <v>10</v>
       </c>
-      <c r="C173" s="4">
+      <c r="F173">
         <v>113</v>
       </c>
-      <c r="D173" s="4">
+      <c r="G173">
         <v>1279</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
-      <c r="A174" s="3">
+      <c r="H173">
+        <v>10</v>
+      </c>
+      <c r="I173">
+        <v>2.397895272798371</v>
+      </c>
+      <c r="J173">
+        <v>4.736198448394496</v>
+      </c>
+      <c r="K173">
+        <v>7.154615356913663</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" s="2">
         <v>44703</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" t="s">
+        <v>24</v>
+      </c>
+      <c r="D174" t="s">
+        <v>30</v>
+      </c>
+      <c r="E174">
         <v>20</v>
       </c>
-      <c r="C174" s="4">
+      <c r="F174">
         <v>117</v>
       </c>
-      <c r="D174" s="4">
+      <c r="G174">
         <v>1315</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
-      <c r="A175" s="3">
+      <c r="H174">
+        <v>20</v>
+      </c>
+      <c r="I174">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="J174">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="K174">
+        <v>7.182352111885263</v>
+      </c>
+      <c r="L174">
+        <v>0.1865080136573187</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" s="2">
         <v>44704</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175" t="s">
+        <v>24</v>
+      </c>
+      <c r="D175" t="s">
+        <v>31</v>
+      </c>
+      <c r="E175">
         <v>14</v>
       </c>
-      <c r="C175" s="4">
+      <c r="F175">
         <v>124</v>
       </c>
-      <c r="D175" s="4">
+      <c r="G175">
         <v>1813</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
-      <c r="A176" s="3">
+      <c r="H175">
+        <v>14</v>
+      </c>
+      <c r="I175">
+        <v>2.70805020110221</v>
+      </c>
+      <c r="J175">
+        <v>4.828313737302302</v>
+      </c>
+      <c r="K175">
+        <v>7.503289630675082</v>
+      </c>
+      <c r="L175">
+        <v>0.3188748992680743</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" s="2">
         <v>44705</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176" t="s">
+        <v>24</v>
+      </c>
+      <c r="D176" t="s">
+        <v>32</v>
+      </c>
+      <c r="E176">
         <v>19</v>
       </c>
-      <c r="C176" s="4">
+      <c r="F176">
         <v>139</v>
       </c>
-      <c r="D176" s="4">
+      <c r="G176">
         <v>1369</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
-      <c r="A177" s="3">
+      <c r="H176">
+        <v>19</v>
+      </c>
+      <c r="I176">
+        <v>2.995732273553991</v>
+      </c>
+      <c r="J176">
+        <v>4.941642422609304</v>
+      </c>
+      <c r="K176">
+        <v>7.222566018822171</v>
+      </c>
+      <c r="L176">
+        <v>0.6542973968915522</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177" s="2">
         <v>44706</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177" t="s">
+        <v>26</v>
+      </c>
+      <c r="E177">
         <v>10</v>
       </c>
-      <c r="C177" s="4">
+      <c r="F177">
         <v>121</v>
       </c>
-      <c r="D177" s="4">
+      <c r="G177">
         <v>1182</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
-      <c r="A178" s="3">
+      <c r="H177">
+        <v>10</v>
+      </c>
+      <c r="I177">
+        <v>2.397895272798371</v>
+      </c>
+      <c r="J177">
+        <v>4.804021044733257</v>
+      </c>
+      <c r="K177">
+        <v>7.075808863978387</v>
+      </c>
+      <c r="L177">
+        <v>-0.7898261225515952</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" s="2">
         <v>44707</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" t="s">
+        <v>24</v>
+      </c>
+      <c r="D178" t="s">
+        <v>27</v>
+      </c>
+      <c r="E178">
         <v>20</v>
       </c>
-      <c r="C178" s="4">
+      <c r="F178">
         <v>124</v>
       </c>
-      <c r="D178" s="4">
+      <c r="G178">
         <v>969</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
-      <c r="A179" s="3">
+      <c r="H178">
+        <v>20</v>
+      </c>
+      <c r="I178">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="J178">
+        <v>4.828313737302302</v>
+      </c>
+      <c r="K178">
+        <v>6.877296071497429</v>
+      </c>
+      <c r="L178">
+        <v>0.135528725660043</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" s="2">
         <v>44708</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" t="s">
+        <v>24</v>
+      </c>
+      <c r="D179" t="s">
+        <v>28</v>
+      </c>
+      <c r="E179">
         <v>13</v>
       </c>
-      <c r="C179" s="4">
+      <c r="F179">
         <v>109</v>
       </c>
-      <c r="D179" s="4">
+      <c r="G179">
         <v>1007</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
-      <c r="A180" s="3">
+      <c r="H179">
+        <v>13</v>
+      </c>
+      <c r="I179">
+        <v>2.639057329615258</v>
+      </c>
+      <c r="J179">
+        <v>4.700480365792417</v>
+      </c>
+      <c r="K179">
+        <v>6.915723448631314</v>
+      </c>
+      <c r="L179">
+        <v>-0.6952222167494924</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180" s="2">
         <v>44709</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" t="s">
+        <v>17</v>
+      </c>
+      <c r="C180" t="s">
+        <v>24</v>
+      </c>
+      <c r="D180" t="s">
+        <v>29</v>
+      </c>
+      <c r="E180">
         <v>14</v>
       </c>
-      <c r="C180" s="4">
+      <c r="F180">
         <v>113</v>
       </c>
-      <c r="D180" s="4">
+      <c r="G180">
         <v>1336</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
-      <c r="A181" s="3">
+      <c r="H180">
+        <v>14</v>
+      </c>
+      <c r="I180">
+        <v>2.70805020110221</v>
+      </c>
+      <c r="J180">
+        <v>4.736198448394496</v>
+      </c>
+      <c r="K180">
+        <v>7.198183577101943</v>
+      </c>
+      <c r="L180">
+        <v>0.1898393038240993</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181" s="2">
         <v>44710</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181" t="s">
+        <v>17</v>
+      </c>
+      <c r="C181" t="s">
+        <v>24</v>
+      </c>
+      <c r="D181" t="s">
+        <v>30</v>
+      </c>
+      <c r="E181">
         <v>19</v>
       </c>
-      <c r="C181" s="4">
+      <c r="F181">
         <v>120</v>
       </c>
-      <c r="D181" s="4">
+      <c r="G181">
         <v>1455</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
-      <c r="A182" s="3">
+      <c r="H181">
+        <v>19</v>
+      </c>
+      <c r="I181">
+        <v>2.995732273553991</v>
+      </c>
+      <c r="J181">
+        <v>4.795790545596741</v>
+      </c>
+      <c r="K181">
+        <v>7.283448228756631</v>
+      </c>
+      <c r="L181">
+        <v>0.3243053373686724</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182" s="2">
         <v>44711</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182" t="s">
+        <v>17</v>
+      </c>
+      <c r="C182" t="s">
+        <v>24</v>
+      </c>
+      <c r="D182" t="s">
+        <v>31</v>
+      </c>
+      <c r="E182">
         <v>16</v>
       </c>
-      <c r="C182" s="4">
+      <c r="F182">
         <v>111</v>
       </c>
-      <c r="D182" s="4">
+      <c r="G182">
         <v>1653</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
-      <c r="A183" s="3">
+      <c r="H182">
+        <v>16</v>
+      </c>
+      <c r="I182">
+        <v>2.833213344056216</v>
+      </c>
+      <c r="J182">
+        <v>4.718498871295094</v>
+      </c>
+      <c r="K182">
+        <v>7.410951875583637</v>
+      </c>
+      <c r="L182">
+        <v>-0.4187973972505841</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183" s="2">
         <v>44712</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183" t="s">
+        <v>17</v>
+      </c>
+      <c r="C183" t="s">
+        <v>24</v>
+      </c>
+      <c r="D183" t="s">
+        <v>32</v>
+      </c>
+      <c r="E183">
         <v>14</v>
       </c>
-      <c r="C183" s="4">
+      <c r="F183">
         <v>84</v>
       </c>
-      <c r="D183" s="4">
+      <c r="G183">
         <v>1791</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
-      <c r="A184" s="3">
+      <c r="H183">
+        <v>14</v>
+      </c>
+      <c r="I183">
+        <v>2.70805020110221</v>
+      </c>
+      <c r="J183">
+        <v>4.442651256490317</v>
+      </c>
+      <c r="K183">
+        <v>7.491087593534876</v>
+      </c>
+      <c r="L183">
+        <v>-1.370502362941059</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184" s="2">
         <v>44713</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184" t="s">
         <v>18</v>
       </c>
-      <c r="C184" s="4">
+      <c r="C184" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" t="s">
+        <v>26</v>
+      </c>
+      <c r="E184">
+        <v>18</v>
+      </c>
+      <c r="F184">
         <v>128</v>
       </c>
-      <c r="D184" s="4">
+      <c r="G184">
         <v>2083</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
-      <c r="A185" s="3">
+      <c r="H184">
+        <v>18</v>
+      </c>
+      <c r="I184">
+        <v>2.94443897916644</v>
+      </c>
+      <c r="J184">
+        <v>4.859812404361672</v>
+      </c>
+      <c r="K184">
+        <v>7.642044402873258</v>
+      </c>
+      <c r="L184">
+        <v>2.148557109073082</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185" s="2">
         <v>44714</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185" t="s">
+        <v>18</v>
+      </c>
+      <c r="C185" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" t="s">
+        <v>27</v>
+      </c>
+      <c r="E185">
         <v>15</v>
       </c>
-      <c r="C185" s="4">
+      <c r="F185">
         <v>121</v>
       </c>
-      <c r="D185" s="4">
+      <c r="G185">
         <v>1988</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
-      <c r="A186" s="3">
+      <c r="H185">
+        <v>15</v>
+      </c>
+      <c r="I185">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="J185">
+        <v>4.804021044733257</v>
+      </c>
+      <c r="K185">
+        <v>7.595387278853972</v>
+      </c>
+      <c r="L185">
+        <v>-0.3137084989847612</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186" s="2">
         <v>44715</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186" t="s">
+        <v>25</v>
+      </c>
+      <c r="D186" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186">
         <v>15</v>
       </c>
-      <c r="C186" s="4">
+      <c r="F186">
         <v>110</v>
       </c>
-      <c r="D186" s="4">
+      <c r="G186">
         <v>1586</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
-      <c r="A187" s="3">
+      <c r="H186">
+        <v>15</v>
+      </c>
+      <c r="I186">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="J186">
+        <v>4.709530201312334</v>
+      </c>
+      <c r="K186">
+        <v>7.369600720526409</v>
+      </c>
+      <c r="L186">
+        <v>-0.5119115182984846</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187" s="2">
         <v>44716</v>
       </c>
-      <c r="B187" s="4">
+      <c r="B187" t="s">
+        <v>18</v>
+      </c>
+      <c r="C187" t="s">
+        <v>25</v>
+      </c>
+      <c r="D187" t="s">
+        <v>29</v>
+      </c>
+      <c r="E187">
         <v>19</v>
       </c>
-      <c r="C187" s="4">
+      <c r="F187">
         <v>115</v>
       </c>
-      <c r="D187" s="4">
+      <c r="G187">
         <v>1382</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
-      <c r="A188" s="3">
+      <c r="H187">
+        <v>19</v>
+      </c>
+      <c r="I187">
+        <v>2.995732273553991</v>
+      </c>
+      <c r="J187">
+        <v>4.753590191106364</v>
+      </c>
+      <c r="K187">
+        <v>7.232010331664759</v>
+      </c>
+      <c r="L187">
+        <v>0.2357168130620924</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188" s="2">
         <v>44717</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188" t="s">
+        <v>25</v>
+      </c>
+      <c r="D188" t="s">
+        <v>30</v>
+      </c>
+      <c r="E188">
         <v>20</v>
       </c>
-      <c r="C188" s="4">
+      <c r="F188">
         <v>127</v>
       </c>
-      <c r="D188" s="4">
+      <c r="G188">
         <v>1294</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
-      <c r="A189" s="3">
+      <c r="H188">
+        <v>20</v>
+      </c>
+      <c r="I188">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="J188">
+        <v>4.852030263919617</v>
+      </c>
+      <c r="K188">
+        <v>7.166265974133638</v>
+      </c>
+      <c r="L188">
+        <v>0.5456223748210363</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189" s="2">
         <v>44718</v>
       </c>
-      <c r="B189" s="4">
+      <c r="B189" t="s">
+        <v>18</v>
+      </c>
+      <c r="C189" t="s">
+        <v>25</v>
+      </c>
+      <c r="D189" t="s">
+        <v>31</v>
+      </c>
+      <c r="E189">
         <v>11</v>
       </c>
-      <c r="C189" s="4">
+      <c r="F189">
         <v>124</v>
       </c>
-      <c r="D189" s="4">
+      <c r="G189">
         <v>1418</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
-      <c r="A190" s="3">
+      <c r="H189">
+        <v>11</v>
+      </c>
+      <c r="I189">
+        <v>2.484906649788</v>
+      </c>
+      <c r="J189">
+        <v>4.828313737302302</v>
+      </c>
+      <c r="K189">
+        <v>7.257707677160043</v>
+      </c>
+      <c r="L189">
+        <v>-0.133898943924601</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190" s="2">
         <v>44719</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190" t="s">
+        <v>18</v>
+      </c>
+      <c r="C190" t="s">
+        <v>25</v>
+      </c>
+      <c r="D190" t="s">
+        <v>32</v>
+      </c>
+      <c r="E190">
         <v>15</v>
       </c>
-      <c r="C190" s="4">
+      <c r="F190">
         <v>118</v>
       </c>
-      <c r="D190" s="4">
+      <c r="G190">
         <v>1592</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
-      <c r="A191" s="3">
+      <c r="H190">
+        <v>15</v>
+      </c>
+      <c r="I190">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="J190">
+        <v>4.77912349311153</v>
+      </c>
+      <c r="K190">
+        <v>7.373374309910049</v>
+      </c>
+      <c r="L190">
+        <v>-0.2727482344598275</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191" s="2">
         <v>44720</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B191" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191" t="s">
+        <v>26</v>
+      </c>
+      <c r="E191">
         <v>13</v>
       </c>
-      <c r="C191" s="4">
+      <c r="F191">
         <v>120</v>
       </c>
-      <c r="D191" s="4">
+      <c r="G191">
         <v>1924</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
-      <c r="A192" s="3">
+      <c r="H191">
+        <v>13</v>
+      </c>
+      <c r="I191">
+        <v>2.639057329615258</v>
+      </c>
+      <c r="J191">
+        <v>4.795790545596741</v>
+      </c>
+      <c r="K191">
+        <v>7.562681246721884</v>
+      </c>
+      <c r="L191">
+        <v>0.09167065890310688</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192" s="2">
         <v>44721</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192" t="s">
+        <v>25</v>
+      </c>
+      <c r="D192" t="s">
+        <v>27</v>
+      </c>
+      <c r="E192">
         <v>11</v>
       </c>
-      <c r="C192" s="4">
+      <c r="F192">
         <v>112</v>
       </c>
-      <c r="D192" s="4">
+      <c r="G192">
         <v>1910</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
-      <c r="A193" s="3">
+      <c r="H192">
+        <v>11</v>
+      </c>
+      <c r="I192">
+        <v>2.484906649788</v>
+      </c>
+      <c r="J192">
+        <v>4.727387818712341</v>
+      </c>
+      <c r="K192">
+        <v>7.555381944240273</v>
+      </c>
+      <c r="L192">
+        <v>-0.3714459058449595</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193" s="2">
         <v>44722</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193" t="s">
+        <v>25</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193">
         <v>19</v>
       </c>
-      <c r="C193" s="4">
+      <c r="F193">
         <v>114</v>
       </c>
-      <c r="D193" s="4">
+      <c r="G193">
         <v>1850</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
-      <c r="A194" s="3">
+      <c r="H193">
+        <v>19</v>
+      </c>
+      <c r="I193">
+        <v>2.995732273553991</v>
+      </c>
+      <c r="J193">
+        <v>4.74493212836325</v>
+      </c>
+      <c r="K193">
+        <v>7.523481312573497</v>
+      </c>
+      <c r="L193">
+        <v>0.09407300777294836</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194" s="2">
         <v>44723</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194" t="s">
+        <v>18</v>
+      </c>
+      <c r="C194" t="s">
+        <v>25</v>
+      </c>
+      <c r="D194" t="s">
+        <v>29</v>
+      </c>
+      <c r="E194">
         <v>20</v>
       </c>
-      <c r="C194" s="4">
+      <c r="F194">
         <v>115</v>
       </c>
-      <c r="D194" s="4">
+      <c r="G194">
         <v>2166</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
-      <c r="A195" s="3">
+      <c r="H194">
+        <v>20</v>
+      </c>
+      <c r="I194">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="J194">
+        <v>4.753590191106364</v>
+      </c>
+      <c r="K194">
+        <v>7.681099001536359</v>
+      </c>
+      <c r="L194">
+        <v>0.04672704273229655</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195" s="2">
         <v>44724</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B195" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195" t="s">
+        <v>30</v>
+      </c>
+      <c r="E195">
         <v>14</v>
       </c>
-      <c r="C195" s="4">
+      <c r="F195">
         <v>112</v>
       </c>
-      <c r="D195" s="4">
+      <c r="G195">
         <v>1680</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
-      <c r="A196" s="3">
+      <c r="H195">
+        <v>14</v>
+      </c>
+      <c r="I195">
+        <v>2.70805020110221</v>
+      </c>
+      <c r="J195">
+        <v>4.727387818712341</v>
+      </c>
+      <c r="K195">
+        <v>7.427144133408616</v>
+      </c>
+      <c r="L195">
+        <v>-0.1408000505052449</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196" s="2">
         <v>44725</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196" t="s">
+        <v>18</v>
+      </c>
+      <c r="C196" t="s">
+        <v>25</v>
+      </c>
+      <c r="D196" t="s">
+        <v>31</v>
+      </c>
+      <c r="E196">
         <v>22</v>
       </c>
-      <c r="C196" s="4">
+      <c r="F196">
         <v>117</v>
       </c>
-      <c r="D196" s="4">
+      <c r="G196">
         <v>1934</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
-      <c r="A197" s="3">
+      <c r="H196">
+        <v>22</v>
+      </c>
+      <c r="I196">
+        <v>3.13549421592915</v>
+      </c>
+      <c r="J196">
+        <v>4.770684624465665</v>
+      </c>
+      <c r="K196">
+        <v>7.567862605463882</v>
+      </c>
+      <c r="L196">
+        <v>0.2336485821336058</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197" s="2">
         <v>44726</v>
       </c>
-      <c r="B197" s="4">
+      <c r="B197" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" t="s">
+        <v>25</v>
+      </c>
+      <c r="D197" t="s">
+        <v>32</v>
+      </c>
+      <c r="E197">
         <v>16</v>
       </c>
-      <c r="C197" s="4">
+      <c r="F197">
         <v>130</v>
       </c>
-      <c r="D197" s="4">
+      <c r="G197">
         <v>2094</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
-      <c r="A198" s="3">
+      <c r="H197">
+        <v>16</v>
+      </c>
+      <c r="I197">
+        <v>2.833213344056216</v>
+      </c>
+      <c r="J197">
+        <v>4.875197323201151</v>
+      </c>
+      <c r="K197">
+        <v>7.647308832356238</v>
+      </c>
+      <c r="L197">
+        <v>0.5851004245994105</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198" s="2">
         <v>44727</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B198" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198" t="s">
+        <v>25</v>
+      </c>
+      <c r="D198" t="s">
+        <v>26</v>
+      </c>
+      <c r="E198">
         <v>9</v>
       </c>
-      <c r="C198" s="4">
+      <c r="F198">
         <v>127</v>
       </c>
-      <c r="D198" s="4">
+      <c r="G198">
         <v>2039</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
-      <c r="A199" s="3">
+      <c r="H198">
+        <v>9</v>
+      </c>
+      <c r="I198">
+        <v>2.302585092994046</v>
+      </c>
+      <c r="J198">
+        <v>4.852030263919617</v>
+      </c>
+      <c r="K198">
+        <v>7.620705086838262</v>
+      </c>
+      <c r="L198">
+        <v>-0.1323265814067351</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199" s="2">
         <v>44728</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B199" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" t="s">
+        <v>27</v>
+      </c>
+      <c r="E199">
         <v>20</v>
       </c>
-      <c r="C199" s="4">
+      <c r="F199">
         <v>136</v>
       </c>
-      <c r="D199" s="4">
+      <c r="G199">
         <v>2118</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
-      <c r="A200" s="3">
+      <c r="H199">
+        <v>20</v>
+      </c>
+      <c r="I199">
+        <v>3.044522437723423</v>
+      </c>
+      <c r="J199">
+        <v>4.919980925828125</v>
+      </c>
+      <c r="K199">
+        <v>7.6586995582683</v>
+      </c>
+      <c r="L199">
+        <v>0.3924761201059574</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200" s="2">
         <v>44729</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B200" t="s">
+        <v>18</v>
+      </c>
+      <c r="C200" t="s">
+        <v>25</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200">
         <v>15</v>
       </c>
-      <c r="C200" s="4">
+      <c r="F200">
         <v>118</v>
       </c>
-      <c r="D200" s="4">
+      <c r="G200">
         <v>2191</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
-      <c r="A201" s="3">
+      <c r="H200">
+        <v>15</v>
+      </c>
+      <c r="I200">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="J200">
+        <v>4.77912349311153</v>
+      </c>
+      <c r="K200">
+        <v>7.692569648067906</v>
+      </c>
+      <c r="L200">
+        <v>-0.799123298490386</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201" s="2">
         <v>44730</v>
       </c>
-      <c r="B201" s="4">
+      <c r="B201" t="s">
+        <v>18</v>
+      </c>
+      <c r="C201" t="s">
+        <v>25</v>
+      </c>
+      <c r="D201" t="s">
+        <v>29</v>
+      </c>
+      <c r="E201">
         <v>16</v>
       </c>
-      <c r="C201" s="4">
+      <c r="F201">
         <v>128</v>
       </c>
-      <c r="D201" s="4">
+      <c r="G201">
         <v>1628</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
-      <c r="A202" s="3">
+      <c r="H201">
+        <v>16</v>
+      </c>
+      <c r="I201">
+        <v>2.833213344056216</v>
+      </c>
+      <c r="J201">
+        <v>4.859812404361672</v>
+      </c>
+      <c r="K201">
+        <v>7.395721608602045</v>
+      </c>
+      <c r="L201">
+        <v>0.4509280077845457</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="A202" s="2">
         <v>44731</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202" t="s">
+        <v>18</v>
+      </c>
+      <c r="C202" t="s">
+        <v>25</v>
+      </c>
+      <c r="D202" t="s">
+        <v>30</v>
+      </c>
+      <c r="E202">
         <v>10</v>
       </c>
-      <c r="C202" s="4">
+      <c r="F202">
         <v>132</v>
       </c>
-      <c r="D202" s="4">
+      <c r="G202">
         <v>2196</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
-      <c r="A203" s="3">
+      <c r="H202">
+        <v>10</v>
+      </c>
+      <c r="I202">
+        <v>2.397895272798371</v>
+      </c>
+      <c r="J202">
+        <v>4.890349128221754</v>
+      </c>
+      <c r="K202">
+        <v>7.69484807238461</v>
+      </c>
+      <c r="L202">
+        <v>0.1754167940912961</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="A203" s="2">
         <v>44732</v>
       </c>
-      <c r="B203" s="4">
+      <c r="B203" t="s">
+        <v>18</v>
+      </c>
+      <c r="C203" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203" t="s">
+        <v>31</v>
+      </c>
+      <c r="E203">
         <v>15</v>
       </c>
-      <c r="C203" s="4">
+      <c r="F203">
         <v>125</v>
       </c>
-      <c r="D203" s="4">
+      <c r="G203">
         <v>1887</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
-      <c r="A204" s="3">
+      <c r="H203">
+        <v>15</v>
+      </c>
+      <c r="I203">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="J203">
+        <v>4.836281906951478</v>
+      </c>
+      <c r="K203">
+        <v>7.543273346705446</v>
+      </c>
+      <c r="L203">
+        <v>-0.3087854055771082</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="A204" s="2">
         <v>44733</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B204" t="s">
+        <v>18</v>
+      </c>
+      <c r="C204" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204" t="s">
+        <v>32</v>
+      </c>
+      <c r="E204">
         <v>7</v>
       </c>
-      <c r="C204" s="4">
+      <c r="F204">
         <v>129</v>
       </c>
-      <c r="D204" s="4">
+      <c r="G204">
         <v>1538</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
-      <c r="A205" s="3">
+      <c r="H204">
+        <v>7</v>
+      </c>
+      <c r="I204">
+        <v>2.079441541679836</v>
+      </c>
+      <c r="J204">
+        <v>4.867534450455582</v>
+      </c>
+      <c r="K204">
+        <v>7.338888133838879</v>
+      </c>
+      <c r="L204">
+        <v>0.1774768041015982</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="A205" s="2">
         <v>44734</v>
       </c>
-      <c r="B205" s="4">
+      <c r="B205" t="s">
+        <v>18</v>
+      </c>
+      <c r="C205" t="s">
+        <v>25</v>
+      </c>
+      <c r="D205" t="s">
+        <v>26</v>
+      </c>
+      <c r="E205">
         <v>17</v>
       </c>
-      <c r="C205" s="4">
+      <c r="F205">
         <v>119</v>
       </c>
-      <c r="D205" s="4">
+      <c r="G205">
         <v>1170</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
-      <c r="A206" s="3">
+      <c r="H205">
+        <v>17</v>
+      </c>
+      <c r="I205">
+        <v>2.890371757896165</v>
+      </c>
+      <c r="J205">
+        <v>4.787491742782046</v>
+      </c>
+      <c r="K205">
+        <v>7.065613363597717</v>
+      </c>
+      <c r="L205">
+        <v>-0.4491045769648334</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="A206" s="2">
         <v>44735</v>
       </c>
-      <c r="B206" s="4">
+      <c r="B206" t="s">
+        <v>18</v>
+      </c>
+      <c r="C206" t="s">
+        <v>25</v>
+      </c>
+      <c r="D206" t="s">
+        <v>27</v>
+      </c>
+      <c r="E206">
         <v>13</v>
       </c>
-      <c r="C206" s="4">
+      <c r="F206">
         <v>135</v>
       </c>
-      <c r="D206" s="4">
+      <c r="G206">
         <v>1374</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
-      <c r="A207" s="3">
+      <c r="H206">
+        <v>13</v>
+      </c>
+      <c r="I206">
+        <v>2.639057329615258</v>
+      </c>
+      <c r="J206">
+        <v>4.912654885736052</v>
+      </c>
+      <c r="K206">
+        <v>7.226209010100671</v>
+      </c>
+      <c r="L206">
+        <v>0.7102379239865364</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="A207" s="2">
         <v>44736</v>
       </c>
-      <c r="B207" s="4">
+      <c r="B207" t="s">
+        <v>18</v>
+      </c>
+      <c r="C207" t="s">
+        <v>25</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207">
         <v>15</v>
       </c>
-      <c r="C207" s="4">
+      <c r="F207">
         <v>118</v>
       </c>
-      <c r="D207" s="4">
+      <c r="G207">
         <v>1147</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
-      <c r="A208" s="3">
+      <c r="H207">
+        <v>15</v>
+      </c>
+      <c r="I207">
+        <v>2.772588722239781</v>
+      </c>
+      <c r="J207">
+        <v>4.77912349311153</v>
+      </c>
+      <c r="K207">
+        <v>7.045776576879511</v>
+      </c>
+      <c r="L207">
+        <v>-0.7561695474220347</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="A208" s="2">
         <v>44737</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B208" t="s">
+        <v>18</v>
+      </c>
+      <c r="C208" t="s">
+        <v>25</v>
+      </c>
+      <c r="D208" t="s">
+        <v>29</v>
+      </c>
+      <c r="E208">
         <v>16</v>
       </c>
-      <c r="C208" s="4">
+      <c r="F208">
         <v>120</v>
       </c>
-      <c r="D208" s="4">
+      <c r="G208">
         <v>865</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
-      <c r="A209" s="3">
+      <c r="H208">
+        <v>16</v>
+      </c>
+      <c r="I208">
+        <v>2.833213344056216</v>
+      </c>
+      <c r="J208">
+        <v>4.795790545596741</v>
+      </c>
+      <c r="K208">
+        <v>6.763884908562435</v>
+      </c>
+      <c r="L208">
+        <v>0.09167065890310688</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="A209" s="2">
         <v>44738</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B209" t="s">
+        <v>18</v>
+      </c>
+      <c r="C209" t="s">
+        <v>25</v>
+      </c>
+      <c r="D209" t="s">
+        <v>30</v>
+      </c>
+      <c r="E209">
         <v>13</v>
       </c>
-      <c r="C209" s="4">
+      <c r="F209">
         <v>114</v>
       </c>
-      <c r="D209" s="4">
+      <c r="G209">
         <v>1218</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
-      <c r="A210" s="3">
+      <c r="H209">
+        <v>13</v>
+      </c>
+      <c r="I209">
+        <v>2.639057329615258</v>
+      </c>
+      <c r="J209">
+        <v>4.74493212836325</v>
+      </c>
+      <c r="K209">
+        <v>7.105786129481271</v>
+      </c>
+      <c r="L209">
+        <v>-0.2773728980720112</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="A210" s="2">
         <v>44739</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210" t="s">
+        <v>18</v>
+      </c>
+      <c r="C210" t="s">
+        <v>25</v>
+      </c>
+      <c r="D210" t="s">
+        <v>31</v>
+      </c>
+      <c r="E210">
         <v>16</v>
       </c>
-      <c r="C210" s="4">
+      <c r="F210">
         <v>106</v>
       </c>
-      <c r="D210" s="4">
+      <c r="G210">
         <v>1311</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
-      <c r="A211" s="3">
+      <c r="H210">
+        <v>16</v>
+      </c>
+      <c r="I210">
+        <v>2.833213344056216</v>
+      </c>
+      <c r="J210">
+        <v>4.672828834461906</v>
+      </c>
+      <c r="K210">
+        <v>7.179307969504034</v>
+      </c>
+      <c r="L210">
+        <v>-0.3814481110443104</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="A211" s="2">
         <v>44740</v>
       </c>
-      <c r="B211" s="4">
+      <c r="B211" t="s">
+        <v>18</v>
+      </c>
+      <c r="C211" t="s">
+        <v>25</v>
+      </c>
+      <c r="D211" t="s">
+        <v>32</v>
+      </c>
+      <c r="E211">
         <v>13</v>
       </c>
-      <c r="C211" s="4">
+      <c r="F211">
         <v>109</v>
       </c>
-      <c r="D211" s="4">
+      <c r="G211">
         <v>885</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
-      <c r="A212" s="3">
+      <c r="H211">
+        <v>13</v>
+      </c>
+      <c r="I211">
+        <v>2.639057329615258</v>
+      </c>
+      <c r="J211">
+        <v>4.700480365792417</v>
+      </c>
+      <c r="K211">
+        <v>6.786716950605081</v>
+      </c>
+      <c r="L211">
+        <v>0.1446763679235499</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
+      <c r="A212" s="2">
         <v>44741</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212" t="s">
+        <v>18</v>
+      </c>
+      <c r="C212" t="s">
+        <v>25</v>
+      </c>
+      <c r="D212" t="s">
+        <v>26</v>
+      </c>
+      <c r="E212">
         <v>16</v>
       </c>
-      <c r="C212" s="4">
+      <c r="F212">
         <v>60</v>
       </c>
-      <c r="D212" s="4">
+      <c r="G212">
         <v>1000</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
-      <c r="A213" s="3">
+      <c r="H212">
+        <v>16</v>
+      </c>
+      <c r="I212">
+        <v>2.833213344056216</v>
+      </c>
+      <c r="J212">
+        <v>4.110873864173311</v>
+      </c>
+      <c r="K212">
+        <v>6.90875477931522</v>
+      </c>
+      <c r="L212">
+        <v>-2.694339816495717</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
+      <c r="A213" s="2">
         <v>44742</v>
       </c>
-      <c r="B213" s="4">
+      <c r="B213" t="s">
+        <v>18</v>
+      </c>
+      <c r="C213" t="s">
+        <v>25</v>
+      </c>
+      <c r="D213" t="s">
+        <v>27</v>
+      </c>
+      <c r="E213">
         <v>8</v>
       </c>
-      <c r="C213" s="4">
+      <c r="F213">
         <v>65</v>
       </c>
-      <c r="D213" s="4">
+      <c r="G213">
         <v>875</v>
+      </c>
+      <c r="H213">
+        <v>8</v>
+      </c>
+      <c r="I213">
+        <v>2.19722457733622</v>
+      </c>
+      <c r="J213">
+        <v>4.189654742026425</v>
+      </c>
+      <c r="K213">
+        <v>6.775366090936392</v>
+      </c>
+      <c r="L213">
+        <v>0.3162910558837151</v>
       </c>
     </row>
   </sheetData>

--- a/final_df.xlsx
+++ b/final_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="32">
   <si>
     <t>Day Index</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>log_Impressions</t>
-  </si>
-  <si>
-    <t>Clicks_stationary</t>
   </si>
   <si>
     <t>2021-12</t>
@@ -474,13 +471,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L213"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,22 +511,19 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>44531</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>14</v>
@@ -553,18 +547,18 @@
         <v>6.431331081933479</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>44532</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -587,22 +581,19 @@
       <c r="K3">
         <v>6.792344427470809</v>
       </c>
-      <c r="L3">
-        <v>-0.2863710630441751</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>44533</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>13</v>
@@ -625,22 +616,19 @@
       <c r="K4">
         <v>6.747586526829315</v>
       </c>
-      <c r="L4">
-        <v>-0.2173917647108112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>44534</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>22</v>
@@ -663,22 +651,19 @@
       <c r="K5">
         <v>6.782192056006791</v>
       </c>
-      <c r="L5">
-        <v>0.0727180377978236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>44535</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>33</v>
@@ -701,22 +686,19 @@
       <c r="K6">
         <v>6.520621127558696</v>
       </c>
-      <c r="L6">
-        <v>0.5727822618234768</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>44536</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>12</v>
@@ -739,22 +721,19 @@
       <c r="K7">
         <v>6.903747257584598</v>
       </c>
-      <c r="L7">
-        <v>-0.5244454043873219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>44537</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>29</v>
@@ -777,22 +756,19 @@
       <c r="K8">
         <v>6.814542897259958</v>
       </c>
-      <c r="L8">
-        <v>0.3589923284974965</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>44538</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>24</v>
@@ -815,22 +791,19 @@
       <c r="K9">
         <v>6.766191714660351</v>
       </c>
-      <c r="L9">
-        <v>-0.310768013678782</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>44539</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>23</v>
@@ -853,22 +826,19 @@
       <c r="K10">
         <v>7.029087564149662</v>
       </c>
-      <c r="L10">
-        <v>0.5936170120359279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>44540</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>38</v>
@@ -891,22 +861,19 @@
       <c r="K11">
         <v>7.029972911706386</v>
       </c>
-      <c r="L11">
-        <v>-1.580436570777433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>44541</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>20</v>
@@ -929,22 +896,19 @@
       <c r="K12">
         <v>7.287560640309724</v>
       </c>
-      <c r="L12">
-        <v>1.368654578580784</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>44542</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>21</v>
@@ -967,22 +931,19 @@
       <c r="K13">
         <v>7.121252453244542</v>
       </c>
-      <c r="L13">
-        <v>-2.514438501668817</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>44543</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>18</v>
@@ -1005,22 +966,19 @@
       <c r="K14">
         <v>7.247080584585756</v>
       </c>
-      <c r="L14">
-        <v>2.41962916965203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>44544</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>15</v>
@@ -1043,22 +1001,19 @@
       <c r="K15">
         <v>7.403670290012373</v>
       </c>
-      <c r="L15">
-        <v>-0.3835868600773615</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>44545</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1081,22 +1036,19 @@
       <c r="K16">
         <v>7.311218384419629</v>
       </c>
-      <c r="L16">
-        <v>-0.0970145185686917</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>44546</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>11</v>
@@ -1119,22 +1071,19 @@
       <c r="K17">
         <v>7.482118923552115</v>
       </c>
-      <c r="L17">
-        <v>-0.4672125589613536</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>44547</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1157,22 +1106,19 @@
       <c r="K18">
         <v>7.39018142822643</v>
       </c>
-      <c r="L18">
-        <v>0.2226501906597953</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>44548</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>14</v>
@@ -1195,22 +1141,19 @@
       <c r="K19">
         <v>6.877296071497429</v>
       </c>
-      <c r="L19">
-        <v>-1.087017371230232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>44549</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>11</v>
@@ -1233,22 +1176,19 @@
       <c r="K20">
         <v>6.520621127558696</v>
       </c>
-      <c r="L20">
-        <v>1.476931115536637</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>44550</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>18</v>
@@ -1271,22 +1211,19 @@
       <c r="K21">
         <v>7.193685818395112</v>
       </c>
-      <c r="L21">
-        <v>-1.141929386427055</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>44551</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>13</v>
@@ -1309,22 +1246,19 @@
       <c r="K22">
         <v>7.194436851100335</v>
       </c>
-      <c r="L22">
-        <v>-0.10246345684914</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>44552</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -1347,22 +1281,19 @@
       <c r="K23">
         <v>7.070724107260276</v>
       </c>
-      <c r="L23">
-        <v>-0.7596354000620771</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>44553</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>9</v>
@@ -1385,22 +1316,19 @@
       <c r="K24">
         <v>7.137278437260385</v>
       </c>
-      <c r="L24">
-        <v>0.2390083876267077</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>44554</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>8</v>
@@ -1423,22 +1351,19 @@
       <c r="K25">
         <v>6.990256500493881</v>
       </c>
-      <c r="L25">
-        <v>-0.5353426819744485</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>44555</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>12</v>
@@ -1461,22 +1386,19 @@
       <c r="K26">
         <v>7.503840746698951</v>
       </c>
-      <c r="L26">
-        <v>-0.02717632867173236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>44556</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>7</v>
@@ -1499,22 +1421,19 @@
       <c r="K27">
         <v>7.473069088032197</v>
       </c>
-      <c r="L27">
-        <v>1.565161032409769</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>44557</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>11</v>
@@ -1537,22 +1456,19 @@
       <c r="K28">
         <v>7.02108396428914</v>
       </c>
-      <c r="L28">
-        <v>-0.7405646309614582</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>44558</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>13</v>
@@ -1575,22 +1491,19 @@
       <c r="K29">
         <v>6.795705775173514</v>
       </c>
-      <c r="L29">
-        <v>0.309848583644591</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>44559</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <v>12</v>
@@ -1613,22 +1526,19 @@
       <c r="K30">
         <v>6.936342735834049</v>
       </c>
-      <c r="L30">
-        <v>-0.5192212959431366</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>44560</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E31">
         <v>11</v>
@@ -1651,22 +1561,19 @@
       <c r="K31">
         <v>6.863803391452954</v>
       </c>
-      <c r="L31">
-        <v>-0.1320377358867937</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>44561</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32">
         <v>15</v>
@@ -1689,22 +1596,19 @@
       <c r="K32">
         <v>6.815639990074331</v>
       </c>
-      <c r="L32">
-        <v>-3.473157945772554</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>44562</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33">
         <v>12</v>
@@ -1727,22 +1631,19 @@
       <c r="K33">
         <v>7.208600337960199</v>
       </c>
-      <c r="L33">
-        <v>2.826062839947946</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>44563</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34">
         <v>26</v>
@@ -1765,22 +1666,19 @@
       <c r="K34">
         <v>7.441320389717617</v>
       </c>
-      <c r="L34">
-        <v>1.502215765027422</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>44564</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35">
         <v>28</v>
@@ -1803,22 +1701,19 @@
       <c r="K35">
         <v>7.686162303492906</v>
       </c>
-      <c r="L35">
-        <v>0.5500520093972732</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>44565</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36">
         <v>14</v>
@@ -1841,22 +1736,19 @@
       <c r="K36">
         <v>7.843848638152472</v>
       </c>
-      <c r="L36">
-        <v>-0.2481505382125064</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>44566</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <v>23</v>
@@ -1879,22 +1771,19 @@
       <c r="K37">
         <v>7.557994958530806</v>
       </c>
-      <c r="L37">
-        <v>-1.024984394500787</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>44567</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38">
         <v>18</v>
@@ -1917,22 +1806,19 @@
       <c r="K38">
         <v>7.661997558901893</v>
       </c>
-      <c r="L38">
-        <v>0.6214168703485825</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>44568</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E39">
         <v>23</v>
@@ -1955,22 +1841,19 @@
       <c r="K39">
         <v>7.59337419312129</v>
       </c>
-      <c r="L39">
-        <v>0.3034419748226931</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>44569</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E40">
         <v>16</v>
@@ -1993,22 +1876,19 @@
       <c r="K40">
         <v>7.528331766707247</v>
       </c>
-      <c r="L40">
-        <v>0.0250784980887282</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>44570</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E41">
         <v>19</v>
@@ -2031,22 +1911,19 @@
       <c r="K41">
         <v>7.473069088032197</v>
       </c>
-      <c r="L41">
-        <v>0.0750470512407837</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>44571</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E42">
         <v>18</v>
@@ -2069,22 +1946,19 @@
       <c r="K42">
         <v>7.360103972989152</v>
       </c>
-      <c r="L42">
-        <v>-0.2259945212774568</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>44572</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43">
         <v>18</v>
@@ -2107,22 +1981,19 @@
       <c r="K43">
         <v>7.506042178518122</v>
       </c>
-      <c r="L43">
-        <v>0.1509474700366731</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>44573</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44">
         <v>21</v>
@@ -2145,22 +2016,19 @@
       <c r="K44">
         <v>7.317876198626496</v>
       </c>
-      <c r="L44">
-        <v>-0.5592179135946864</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>44574</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45">
         <v>15</v>
@@ -2183,22 +2051,19 @@
       <c r="K45">
         <v>7.45298232946546</v>
       </c>
-      <c r="L45">
-        <v>-0.1813467173667718</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>44575</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E46">
         <v>16</v>
@@ -2221,22 +2086,19 @@
       <c r="K46">
         <v>7.69484807238461</v>
       </c>
-      <c r="L46">
-        <v>0.4629428606074555</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>44576</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E47">
         <v>11</v>
@@ -2259,22 +2121,19 @@
       <c r="K47">
         <v>7.56734567601324</v>
       </c>
-      <c r="L47">
-        <v>0.3026687825321766</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>44577</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E48">
         <v>16</v>
@@ -2297,22 +2156,19 @@
       <c r="K48">
         <v>7.580699752224563</v>
       </c>
-      <c r="L48">
-        <v>0.3474170774633976</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>44578</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E49">
         <v>19</v>
@@ -2335,22 +2191,19 @@
       <c r="K49">
         <v>7.432483807917119</v>
       </c>
-      <c r="L49">
-        <v>0.2931266951867286</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>44579</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E50">
         <v>16</v>
@@ -2373,22 +2226,19 @@
       <c r="K50">
         <v>7.329749689041512</v>
       </c>
-      <c r="L50">
-        <v>-1.432202034837427</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>44580</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E51">
         <v>16</v>
@@ -2411,22 +2261,19 @@
       <c r="K51">
         <v>6.948897222313312</v>
       </c>
-      <c r="L51">
-        <v>0.5650915648806212</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>44581</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E52">
         <v>18</v>
@@ -2449,22 +2296,19 @@
       <c r="K52">
         <v>7.069874128458572</v>
       </c>
-      <c r="L52">
-        <v>1.012121833895197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>44582</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E53">
         <v>24</v>
@@ -2487,22 +2331,19 @@
       <c r="K53">
         <v>7.427738840532894</v>
       </c>
-      <c r="L53">
-        <v>0.07212716397296504</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>44583</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E54">
         <v>13</v>
@@ -2525,22 +2366,19 @@
       <c r="K54">
         <v>6.871091294610546</v>
       </c>
-      <c r="L54">
-        <v>-1.211249785651077</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>44584</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E55">
         <v>14</v>
@@ -2563,22 +2401,19 @@
       <c r="K55">
         <v>6.664409020350408</v>
       </c>
-      <c r="L55">
-        <v>1.449890635356894</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>44585</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E56">
         <v>26</v>
@@ -2601,22 +2436,19 @@
       <c r="K56">
         <v>6.947937068614969</v>
       </c>
-      <c r="L56">
-        <v>-0.4557793776171728</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>44586</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E57">
         <v>12</v>
@@ -2639,22 +2471,19 @@
       <c r="K57">
         <v>6.876264611890766</v>
       </c>
-      <c r="L57">
-        <v>-1.019610185822881</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>44587</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E58">
         <v>18</v>
@@ -2677,22 +2506,19 @@
       <c r="K58">
         <v>6.774223886357614</v>
       </c>
-      <c r="L58">
-        <v>-0.3865452299668775</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>44588</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E59">
         <v>12</v>
@@ -2715,22 +2541,19 @@
       <c r="K59">
         <v>6.849066282633458</v>
       </c>
-      <c r="L59">
-        <v>0.1555440187385386</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>44589</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E60">
         <v>13</v>
@@ -2753,22 +2576,19 @@
       <c r="K60">
         <v>6.635946555686647</v>
       </c>
-      <c r="L60">
-        <v>0.8093242707949315</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>44590</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E61">
         <v>14</v>
@@ -2791,22 +2611,19 @@
       <c r="K61">
         <v>7.277938572945661</v>
       </c>
-      <c r="L61">
-        <v>-0.1492566073312283</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>44591</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E62">
         <v>9</v>
@@ -2829,22 +2646,19 @@
       <c r="K62">
         <v>7.080867896690782</v>
       </c>
-      <c r="L62">
-        <v>0.5662758874732141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>44592</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E63">
         <v>15</v>
@@ -2867,22 +2681,19 @@
       <c r="K63">
         <v>7.138866999945524</v>
       </c>
-      <c r="L63">
-        <v>0.4563048978751851</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>44593</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E64">
         <v>25</v>
@@ -2905,22 +2716,19 @@
       <c r="K64">
         <v>6.950814768442584</v>
       </c>
-      <c r="L64">
-        <v>0.4000454096780288</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>44594</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E65">
         <v>13</v>
@@ -2943,22 +2751,19 @@
       <c r="K65">
         <v>7.044905117129371</v>
       </c>
-      <c r="L65">
-        <v>-0.3763030838217389</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>44595</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E66">
         <v>21</v>
@@ -2981,22 +2786,19 @@
       <c r="K66">
         <v>6.98933526597456</v>
       </c>
-      <c r="L66">
-        <v>0.2124891480872861</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>44596</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E67">
         <v>23</v>
@@ -3019,22 +2821,19 @@
       <c r="K67">
         <v>6.966024187106113</v>
       </c>
-      <c r="L67">
-        <v>0.6934643220431482</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>44597</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E68">
         <v>15</v>
@@ -3057,22 +2856,19 @@
       <c r="K68">
         <v>7.254177846456518</v>
       </c>
-      <c r="L68">
-        <v>-2.25417805251989</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>44598</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E69">
         <v>12</v>
@@ -3095,22 +2891,19 @@
       <c r="K69">
         <v>7.216709486709457</v>
       </c>
-      <c r="L69">
-        <v>0.3766683189257591</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>44599</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E70">
         <v>22</v>
@@ -3133,22 +2926,19 @@
       <c r="K70">
         <v>7.152268856032539</v>
       </c>
-      <c r="L70">
-        <v>1.440907986296235</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>44600</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E71">
         <v>17</v>
@@ -3171,22 +2961,19 @@
       <c r="K71">
         <v>7.251344983372214</v>
       </c>
-      <c r="L71">
-        <v>-0.6122096920816666</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>44601</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E72">
         <v>20</v>
@@ -3209,22 +2996,19 @@
       <c r="K72">
         <v>7.31455283232408</v>
       </c>
-      <c r="L72">
-        <v>0.09534650517229082</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>44602</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E73">
         <v>23</v>
@@ -3247,22 +3031,19 @@
       <c r="K73">
         <v>7.464509834636528</v>
       </c>
-      <c r="L73">
-        <v>0.4004892439999104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>44603</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E74">
         <v>16</v>
@@ -3285,22 +3066,19 @@
       <c r="K74">
         <v>7.56164174558878</v>
       </c>
-      <c r="L74">
-        <v>0.0931495057214633</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>44604</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E75">
         <v>15</v>
@@ -3323,22 +3101,19 @@
       <c r="K75">
         <v>7.40671073017764</v>
       </c>
-      <c r="L75">
-        <v>1.307989629676641</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>44605</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E76">
         <v>27</v>
@@ -3361,22 +3136,19 @@
       <c r="K76">
         <v>7.607878073278507</v>
       </c>
-      <c r="L76">
-        <v>-0.175921115214404</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>44606</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E77">
         <v>19</v>
@@ -3399,22 +3171,19 @@
       <c r="K77">
         <v>7.903965634032166</v>
       </c>
-      <c r="L77">
-        <v>-0.06632372453982072</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>44607</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E78">
         <v>17</v>
@@ -3437,22 +3206,19 @@
       <c r="K78">
         <v>7.805882040228621</v>
       </c>
-      <c r="L78">
-        <v>-0.1778230788643498</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>44608</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E79">
         <v>22</v>
@@ -3475,22 +3241,19 @@
       <c r="K79">
         <v>7.61085279039525</v>
       </c>
-      <c r="L79">
-        <v>0.5075219723711193</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>44609</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E80">
         <v>38</v>
@@ -3513,22 +3276,19 @@
       <c r="K80">
         <v>7.763021309018518</v>
       </c>
-      <c r="L80">
-        <v>-0.4406734205349672</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>44610</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E81">
         <v>28</v>
@@ -3551,22 +3311,19 @@
       <c r="K81">
         <v>7.534762657037537</v>
       </c>
-      <c r="L81">
-        <v>1.149818567791201</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>44611</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E82">
         <v>23</v>
@@ -3589,22 +3346,19 @@
       <c r="K82">
         <v>7.288244401020124</v>
       </c>
-      <c r="L82">
-        <v>1.156999764692301</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>44612</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E83">
         <v>15</v>
@@ -3627,22 +3381,19 @@
       <c r="K83">
         <v>7.001245622069476</v>
       </c>
-      <c r="L83">
-        <v>-0.2229650711103837</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>44613</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E84">
         <v>26</v>
@@ -3665,22 +3416,19 @@
       <c r="K84">
         <v>6.977281341630747</v>
       </c>
-      <c r="L84">
-        <v>2.38832885499761</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>44614</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E85">
         <v>18</v>
@@ -3703,22 +3451,19 @@
       <c r="K85">
         <v>6.953684210870537</v>
       </c>
-      <c r="L85">
-        <v>-2.30701718110512</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>44615</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E86">
         <v>21</v>
@@ -3741,22 +3486,19 @@
       <c r="K86">
         <v>6.851184927493743</v>
       </c>
-      <c r="L86">
-        <v>-1.877756636027755</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>44616</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E87">
         <v>5</v>
@@ -3779,22 +3521,19 @@
       <c r="K87">
         <v>7.036148493750536</v>
       </c>
-      <c r="L87">
-        <v>1.714863147558749</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>44617</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E88">
         <v>12</v>
@@ -3817,22 +3556,19 @@
       <c r="K88">
         <v>7.267525427828172</v>
       </c>
-      <c r="L88">
-        <v>-1.431039257435007</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>44618</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E89">
         <v>19</v>
@@ -3855,22 +3591,19 @@
       <c r="K89">
         <v>7.236339342754344</v>
       </c>
-      <c r="L89">
-        <v>1.410601277669141</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>44619</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E90">
         <v>21</v>
@@ -3893,22 +3626,19 @@
       <c r="K90">
         <v>7.069874128458572</v>
       </c>
-      <c r="L90">
-        <v>-1.738405138073873</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>44620</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E91">
         <v>21</v>
@@ -3931,22 +3661,19 @@
       <c r="K91">
         <v>7.149131598557407</v>
       </c>
-      <c r="L91">
-        <v>0.2408471832968999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>44621</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E92">
         <v>20</v>
@@ -3969,22 +3696,19 @@
       <c r="K92">
         <v>7.442492722794441</v>
       </c>
-      <c r="L92">
-        <v>-0.4842755122537632</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>44622</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E93">
         <v>17</v>
@@ -4007,22 +3731,19 @@
       <c r="K93">
         <v>7.189922170745808</v>
       </c>
-      <c r="L93">
-        <v>0.1109745270281977</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>44623</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E94">
         <v>20</v>
@@ -4045,22 +3766,19 @@
       <c r="K94">
         <v>7.269616749608169</v>
       </c>
-      <c r="L94">
-        <v>-1.158894295643879</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>44624</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E95">
         <v>17</v>
@@ -4083,22 +3801,19 @@
       <c r="K95">
         <v>7.102499355774649</v>
       </c>
-      <c r="L95">
-        <v>1.553965300523565</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>44625</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E96">
         <v>31</v>
@@ -4121,22 +3836,19 @@
       <c r="K96">
         <v>7.045776576879511</v>
       </c>
-      <c r="L96">
-        <v>0.1734232194283365</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>44626</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E97">
         <v>23</v>
@@ -4159,22 +3871,19 @@
       <c r="K97">
         <v>7.234898420314831</v>
       </c>
-      <c r="L97">
-        <v>0.2577260158588004</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>44627</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E98">
         <v>18</v>
@@ -4197,22 +3906,19 @@
       <c r="K98">
         <v>7.360103972989152</v>
       </c>
-      <c r="L98">
-        <v>-1.776092168655314</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>44628</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E99">
         <v>20</v>
@@ -4235,22 +3941,19 @@
       <c r="K99">
         <v>7.239214973779806</v>
       </c>
-      <c r="L99">
-        <v>0.6152878085030515</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>44629</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E100">
         <v>22</v>
@@ -4273,22 +3976,19 @@
       <c r="K100">
         <v>7.07326971745971</v>
       </c>
-      <c r="L100">
-        <v>0.6860944210724398</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>44630</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E101">
         <v>16</v>
@@ -4311,22 +4011,19 @@
       <c r="K101">
         <v>7.164720378771857</v>
       </c>
-      <c r="L101">
-        <v>-1.14019516465606</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>44631</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E102">
         <v>24</v>
@@ -4349,22 +4046,19 @@
       <c r="K102">
         <v>7.153833801578843</v>
       </c>
-      <c r="L102">
-        <v>0.9431392841007771</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>44632</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E103">
         <v>27</v>
@@ -4387,22 +4081,19 @@
       <c r="K103">
         <v>7.244941546337007</v>
       </c>
-      <c r="L103">
-        <v>-0.220973503408743</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>44633</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E104">
         <v>19</v>
@@ -4425,22 +4116,19 @@
       <c r="K104">
         <v>7.22402480828583</v>
       </c>
-      <c r="L104">
-        <v>0.591779518187284</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>44634</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E105">
         <v>13</v>
@@ -4463,22 +4151,19 @@
       <c r="K105">
         <v>7.201916317531627</v>
       </c>
-      <c r="L105">
-        <v>0.386240232358773</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>44635</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E106">
         <v>15</v>
@@ -4501,22 +4186,19 @@
       <c r="K106">
         <v>7.109879463072271</v>
       </c>
-      <c r="L106">
-        <v>-0.8231121514321913</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>44636</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E107">
         <v>17</v>
@@ -4539,22 +4221,19 @@
       <c r="K107">
         <v>7.272398392570047</v>
       </c>
-      <c r="L107">
-        <v>-0.9690336832985622</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>44637</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E108">
         <v>15</v>
@@ -4577,22 +4256,19 @@
       <c r="K108">
         <v>7.111512116496157</v>
       </c>
-      <c r="L108">
-        <v>0.02302656818972437</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>44638</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E109">
         <v>19</v>
@@ -4615,22 +4291,19 @@
       <c r="K109">
         <v>7.80098207125774</v>
       </c>
-      <c r="L109">
-        <v>-2.438259460414521</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>44639</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E110">
         <v>25</v>
@@ -4653,22 +4326,19 @@
       <c r="K110">
         <v>7.771910256435763</v>
       </c>
-      <c r="L110">
-        <v>2.621600778220735</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>44640</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E111">
         <v>22</v>
@@ -4691,22 +4361,19 @@
       <c r="K111">
         <v>7.852827812281745</v>
       </c>
-      <c r="L111">
-        <v>0.4964542022014342</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>44641</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E112">
         <v>25</v>
@@ -4729,22 +4396,19 @@
       <c r="K112">
         <v>7.601402334583733</v>
       </c>
-      <c r="L112">
-        <v>0.6597686869335142</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>44642</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E113">
         <v>7</v>
@@ -4767,22 +4431,19 @@
       <c r="K113">
         <v>7.198183577101943</v>
       </c>
-      <c r="L113">
-        <v>-0.2178058717498672</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>44643</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E114">
         <v>15</v>
@@ -4805,22 +4466,19 @@
       <c r="K114">
         <v>7.473637108496206</v>
       </c>
-      <c r="L114">
-        <v>-0.870058341755815</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>44644</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E115">
         <v>32</v>
@@ -4843,22 +4501,19 @@
       <c r="K115">
         <v>7.186901020411631</v>
       </c>
-      <c r="L115">
-        <v>1.41077015121709</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>44645</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E116">
         <v>24</v>
@@ -4881,22 +4536,19 @@
       <c r="K116">
         <v>7.288244401020124</v>
       </c>
-      <c r="L116">
-        <v>-1.7085477383742</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>44646</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C117" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E117">
         <v>24</v>
@@ -4919,22 +4571,19 @@
       <c r="K117">
         <v>7.667158255319148</v>
       </c>
-      <c r="L117">
-        <v>0.7258731137292784</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>44647</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C118" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E118">
         <v>21</v>
@@ -4957,22 +4606,19 @@
       <c r="K118">
         <v>7.766840537085513</v>
       </c>
-      <c r="L118">
-        <v>-0.1118596928001239</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>44648</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E119">
         <v>21</v>
@@ -4995,22 +4641,19 @@
       <c r="K119">
         <v>7.403061091090091</v>
       </c>
-      <c r="L119">
-        <v>-0.2480891245593533</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>44649</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E120">
         <v>18</v>
@@ -5033,22 +4676,19 @@
       <c r="K120">
         <v>7.620214770574455</v>
       </c>
-      <c r="L120">
-        <v>0.626160412460667</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>44650</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D121" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E121">
         <v>19</v>
@@ -5071,22 +4711,19 @@
       <c r="K121">
         <v>7.816013839159027</v>
       </c>
-      <c r="L121">
-        <v>-1.911028605482574</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>44651</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C122" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D122" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E122">
         <v>14</v>
@@ -5109,22 +4746,19 @@
       <c r="K122">
         <v>7.581719640125308</v>
       </c>
-      <c r="L122">
-        <v>0.7801197365113204</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>44652</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E123">
         <v>9</v>
@@ -5147,22 +4781,19 @@
       <c r="K123">
         <v>7.752335163302292</v>
       </c>
-      <c r="L123">
-        <v>1.80457583131949</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>44653</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E124">
         <v>21</v>
@@ -5185,22 +4816,19 @@
       <c r="K124">
         <v>7.79770203551669</v>
       </c>
-      <c r="L124">
-        <v>-0.3887544933595102</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>44654</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E125">
         <v>24</v>
@@ -5223,22 +4851,19 @@
       <c r="K125">
         <v>7.700295203420117</v>
       </c>
-      <c r="L125">
-        <v>-0.5734512808986025</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12">
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>44655</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E126">
         <v>17</v>
@@ -5261,22 +4886,19 @@
       <c r="K126">
         <v>7.761744984658913</v>
       </c>
-      <c r="L126">
-        <v>-0.06711568117799516</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>44656</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E127">
         <v>21</v>
@@ -5299,22 +4921,19 @@
       <c r="K127">
         <v>7.720017940432244</v>
       </c>
-      <c r="L127">
-        <v>-0.9617571003587742</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12">
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>44657</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D128" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E128">
         <v>20</v>
@@ -5337,22 +4956,19 @@
       <c r="K128">
         <v>7.738052297689316</v>
       </c>
-      <c r="L128">
-        <v>0.6685590414826166</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>44658</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D129" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E129">
         <v>21</v>
@@ -5375,22 +4991,19 @@
       <c r="K129">
         <v>7.583756300707112</v>
       </c>
-      <c r="L129">
-        <v>-0.4820563170072241</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>44659</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E130">
         <v>17</v>
@@ -5413,22 +5026,19 @@
       <c r="K130">
         <v>7.566828479208331</v>
       </c>
-      <c r="L130">
-        <v>1.284765192488639</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>44660</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E131">
         <v>24</v>
@@ -5451,22 +5061,19 @@
       <c r="K131">
         <v>7.71244383427499</v>
       </c>
-      <c r="L131">
-        <v>-0.6443514082078181</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>44661</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E132">
         <v>22</v>
@@ -5489,22 +5096,19 @@
       <c r="K132">
         <v>7.636269603379374</v>
       </c>
-      <c r="L132">
-        <v>2.170518310953007</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>44662</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E133">
         <v>24</v>
@@ -5527,22 +5131,19 @@
       <c r="K133">
         <v>7.459338895220296</v>
       </c>
-      <c r="L133">
-        <v>-0.3099607634292276</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>44663</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E134">
         <v>19</v>
@@ -5565,22 +5166,19 @@
       <c r="K134">
         <v>7.444833273892193</v>
       </c>
-      <c r="L134">
-        <v>-1.547186801938629</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>44664</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D135" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E135">
         <v>20</v>
@@ -5603,22 +5201,19 @@
       <c r="K135">
         <v>7.483806687665835</v>
       </c>
-      <c r="L135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>44665</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D136" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E136">
         <v>20</v>
@@ -5641,22 +5236,19 @@
       <c r="K136">
         <v>7.234177179749849</v>
       </c>
-      <c r="L136">
-        <v>0.8293638209772176</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>44666</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E137">
         <v>21</v>
@@ -5679,22 +5271,19 @@
       <c r="K137">
         <v>7.290974778142981</v>
       </c>
-      <c r="L137">
-        <v>0.2770398630306907</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>44667</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E138">
         <v>11</v>
@@ -5717,22 +5306,19 @@
       <c r="K138">
         <v>7.358193752733032</v>
       </c>
-      <c r="L138">
-        <v>-4.999772204673619</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>44668</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E139">
         <v>26</v>
@@ -5755,22 +5341,19 @@
       <c r="K139">
         <v>7.60339933974067</v>
       </c>
-      <c r="L139">
-        <v>5.336343169433373</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>44669</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E140">
         <v>31</v>
@@ -5793,22 +5376,19 @@
       <c r="K140">
         <v>7.53689712956617</v>
       </c>
-      <c r="L140">
-        <v>-0.7425913976852456</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>44670</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C141" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E141">
         <v>16</v>
@@ -5831,22 +5411,19 @@
       <c r="K141">
         <v>7.515889085215125</v>
       </c>
-      <c r="L141">
-        <v>0.1932041175665979</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>44671</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D142" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E142">
         <v>16</v>
@@ -5869,22 +5446,19 @@
       <c r="K142">
         <v>7.109879463072271</v>
       </c>
-      <c r="L142">
-        <v>0.4237306725283148</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12">
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>44672</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D143" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E143">
         <v>30</v>
@@ -5907,22 +5481,19 @@
       <c r="K143">
         <v>7.103322062526113</v>
       </c>
-      <c r="L143">
-        <v>-0.2321095544781251</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>44673</v>
       </c>
       <c r="B144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E144">
         <v>36</v>
@@ -5945,22 +5516,19 @@
       <c r="K144">
         <v>7.059617628291383</v>
       </c>
-      <c r="L144">
-        <v>-1.90016885642439</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>44674</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E145">
         <v>16</v>
@@ -5983,22 +5551,19 @@
       <c r="K145">
         <v>7.54274354536855</v>
       </c>
-      <c r="L145">
-        <v>-0.5607713067359263</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>44675</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C146" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E146">
         <v>17</v>
@@ -6021,22 +5586,19 @@
       <c r="K146">
         <v>7.558516743045645</v>
       </c>
-      <c r="L146">
-        <v>1.64090127153921</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>44676</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C147" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E147">
         <v>23</v>
@@ -6059,22 +5621,19 @@
       <c r="K147">
         <v>7.322510433997394</v>
       </c>
-      <c r="L147">
-        <v>-5.295364156909105</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>44677</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C148" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D148" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E148">
         <v>17</v>
@@ -6097,22 +5656,19 @@
       <c r="K148">
         <v>7.030857476116121</v>
       </c>
-      <c r="L148">
-        <v>-6.740443901809371</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>44678</v>
       </c>
       <c r="B149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C149" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D149" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E149">
         <v>14</v>
@@ -6135,22 +5691,19 @@
       <c r="K149">
         <v>7.266128779556451</v>
       </c>
-      <c r="L149">
-        <v>1.685868351227249</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>44679</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C150" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D150" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E150">
         <v>12</v>
@@ -6173,22 +5726,19 @@
       <c r="K150">
         <v>7.126087273299125</v>
       </c>
-      <c r="L150">
-        <v>0.1998465669276346</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>44680</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D151" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E151">
         <v>11</v>
@@ -6211,22 +5761,19 @@
       <c r="K151">
         <v>7.188412736496954</v>
       </c>
-      <c r="L151">
-        <v>-1.163997070658894</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>44681</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C152" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D152" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E152">
         <v>23</v>
@@ -6249,22 +5796,19 @@
       <c r="K152">
         <v>7.240649694255466</v>
       </c>
-      <c r="L152">
-        <v>5.347332481487067</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>44682</v>
       </c>
       <c r="B153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E153">
         <v>9</v>
@@ -6287,22 +5831,19 @@
       <c r="K153">
         <v>7.51479976048867</v>
       </c>
-      <c r="L153">
-        <v>-0.2399102664998161</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>44683</v>
       </c>
       <c r="B154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E154">
         <v>19</v>
@@ -6325,22 +5866,19 @@
       <c r="K154">
         <v>7.553286605600419</v>
       </c>
-      <c r="L154">
-        <v>-4.143271711255991</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>44684</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E155">
         <v>25</v>
@@ -6363,22 +5901,19 @@
       <c r="K155">
         <v>7.463936604468925</v>
       </c>
-      <c r="L155">
-        <v>-0.8771110513200604</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>44685</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E156">
         <v>16</v>
@@ -6401,22 +5936,19 @@
       <c r="K156">
         <v>7.356918242356021</v>
       </c>
-      <c r="L156">
-        <v>-0.4872015774835354</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>44686</v>
       </c>
       <c r="B157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D157" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E157">
         <v>18</v>
@@ -6439,22 +5971,19 @@
       <c r="K157">
         <v>7.088408778675395</v>
       </c>
-      <c r="L157">
-        <v>4.381887603354251</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>44687</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E158">
         <v>14</v>
@@ -6477,22 +6006,19 @@
       <c r="K158">
         <v>7.393263094763838</v>
       </c>
-      <c r="L158">
-        <v>-5.131618479554511</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>44688</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E159">
         <v>21</v>
@@ -6515,22 +6041,19 @@
       <c r="K159">
         <v>7.508238774678663</v>
       </c>
-      <c r="L159">
-        <v>-1.463869274659153</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12">
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>44689</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E160">
         <v>14</v>
@@ -6553,22 +6076,19 @@
       <c r="K160">
         <v>7.343426229147367</v>
       </c>
-      <c r="L160">
-        <v>5.831117432287332</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12">
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>44690</v>
       </c>
       <c r="B161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E161">
         <v>15</v>
@@ -6591,22 +6111,19 @@
       <c r="K161">
         <v>7.62608275807238</v>
       </c>
-      <c r="L161">
-        <v>-1.20925425154147</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12">
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>44691</v>
       </c>
       <c r="B162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E162">
         <v>13</v>
@@ -6629,22 +6146,19 @@
       <c r="K162">
         <v>7.569927655242652</v>
       </c>
-      <c r="L162">
-        <v>-0.5695253203485837</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12">
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>44692</v>
       </c>
       <c r="B163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D163" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E163">
         <v>15</v>
@@ -6667,22 +6181,19 @@
       <c r="K163">
         <v>7.232010331664759</v>
       </c>
-      <c r="L163">
-        <v>1.98197002059338</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12">
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>44693</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D164" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E164">
         <v>14</v>
@@ -6705,22 +6216,19 @@
       <c r="K164">
         <v>7.102499355774649</v>
       </c>
-      <c r="L164">
-        <v>0.561179873223006</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12">
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>44694</v>
       </c>
       <c r="B165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D165" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E165">
         <v>11</v>
@@ -6743,22 +6251,19 @@
       <c r="K165">
         <v>7.504942068396171</v>
       </c>
-      <c r="L165">
-        <v>-2.123113924891442</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12">
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>44695</v>
       </c>
       <c r="B166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D166" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E166">
         <v>19</v>
@@ -6781,22 +6286,19 @@
       <c r="K166">
         <v>7.479864131165026</v>
       </c>
-      <c r="L166">
-        <v>2.820380800947028</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12">
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>44696</v>
       </c>
       <c r="B167" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E167">
         <v>12</v>
@@ -6819,22 +6321,19 @@
       <c r="K167">
         <v>7.368339686311381</v>
       </c>
-      <c r="L167">
-        <v>-4.766698804996551</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12">
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>44697</v>
       </c>
       <c r="B168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E168">
         <v>12</v>
@@ -6857,22 +6356,19 @@
       <c r="K168">
         <v>7.286191714702382</v>
       </c>
-      <c r="L168">
-        <v>1.132179305196249</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12">
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>44698</v>
       </c>
       <c r="B169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E169">
         <v>11</v>
@@ -6895,22 +6391,19 @@
       <c r="K169">
         <v>7.117205503164344</v>
       </c>
-      <c r="L169">
-        <v>-2.049689487886246</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12">
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>44699</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D170" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E170">
         <v>11</v>
@@ -6933,22 +6426,19 @@
       <c r="K170">
         <v>7.364547014255642</v>
       </c>
-      <c r="L170">
-        <v>-0.09622607612194933</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12">
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>44700</v>
       </c>
       <c r="B171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D171" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E171">
         <v>20</v>
@@ -6971,22 +6461,19 @@
       <c r="K171">
         <v>7.144407180321139</v>
       </c>
-      <c r="L171">
-        <v>0.3329978192427099</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12">
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>44701</v>
       </c>
       <c r="B172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D172" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E172">
         <v>13</v>
@@ -7009,22 +6496,19 @@
       <c r="K172">
         <v>7.396335293800808</v>
       </c>
-      <c r="L172">
-        <v>-0.04693243929666124</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12">
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>44702</v>
       </c>
       <c r="B173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D173" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E173">
         <v>10</v>
@@ -7047,22 +6531,19 @@
       <c r="K173">
         <v>7.154615356913663</v>
       </c>
-      <c r="L173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12">
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>44703</v>
       </c>
       <c r="B174" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E174">
         <v>20</v>
@@ -7085,22 +6566,19 @@
       <c r="K174">
         <v>7.182352111885263</v>
       </c>
-      <c r="L174">
-        <v>0.1865080136573187</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12">
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>44704</v>
       </c>
       <c r="B175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E175">
         <v>14</v>
@@ -7123,22 +6601,19 @@
       <c r="K175">
         <v>7.503289630675082</v>
       </c>
-      <c r="L175">
-        <v>0.3188748992680743</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12">
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="2">
         <v>44705</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C176" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E176">
         <v>19</v>
@@ -7161,22 +6636,19 @@
       <c r="K176">
         <v>7.222566018822171</v>
       </c>
-      <c r="L176">
-        <v>0.6542973968915522</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12">
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="2">
         <v>44706</v>
       </c>
       <c r="B177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C177" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D177" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E177">
         <v>10</v>
@@ -7199,22 +6671,19 @@
       <c r="K177">
         <v>7.075808863978387</v>
       </c>
-      <c r="L177">
-        <v>-0.7898261225515952</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12">
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="2">
         <v>44707</v>
       </c>
       <c r="B178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C178" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D178" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E178">
         <v>20</v>
@@ -7237,22 +6706,19 @@
       <c r="K178">
         <v>6.877296071497429</v>
       </c>
-      <c r="L178">
-        <v>0.135528725660043</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12">
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="2">
         <v>44708</v>
       </c>
       <c r="B179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C179" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E179">
         <v>13</v>
@@ -7275,22 +6741,19 @@
       <c r="K179">
         <v>6.915723448631314</v>
       </c>
-      <c r="L179">
-        <v>-0.6952222167494924</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12">
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="2">
         <v>44709</v>
       </c>
       <c r="B180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C180" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D180" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E180">
         <v>14</v>
@@ -7313,22 +6776,19 @@
       <c r="K180">
         <v>7.198183577101943</v>
       </c>
-      <c r="L180">
-        <v>0.1898393038240993</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12">
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="2">
         <v>44710</v>
       </c>
       <c r="B181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E181">
         <v>19</v>
@@ -7351,22 +6811,19 @@
       <c r="K181">
         <v>7.283448228756631</v>
       </c>
-      <c r="L181">
-        <v>0.3243053373686724</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12">
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="2">
         <v>44711</v>
       </c>
       <c r="B182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C182" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E182">
         <v>16</v>
@@ -7389,22 +6846,19 @@
       <c r="K182">
         <v>7.410951875583637</v>
       </c>
-      <c r="L182">
-        <v>-0.4187973972505841</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12">
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="2">
         <v>44712</v>
       </c>
       <c r="B183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D183" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E183">
         <v>14</v>
@@ -7427,22 +6881,19 @@
       <c r="K183">
         <v>7.491087593534876</v>
       </c>
-      <c r="L183">
-        <v>-1.370502362941059</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12">
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="2">
         <v>44713</v>
       </c>
       <c r="B184" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C184" t="s">
+        <v>24</v>
+      </c>
+      <c r="D184" t="s">
         <v>25</v>
-      </c>
-      <c r="D184" t="s">
-        <v>26</v>
       </c>
       <c r="E184">
         <v>18</v>
@@ -7465,22 +6916,19 @@
       <c r="K184">
         <v>7.642044402873258</v>
       </c>
-      <c r="L184">
-        <v>2.148557109073082</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12">
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="2">
         <v>44714</v>
       </c>
       <c r="B185" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C185" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D185" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E185">
         <v>15</v>
@@ -7503,22 +6951,19 @@
       <c r="K185">
         <v>7.595387278853972</v>
       </c>
-      <c r="L185">
-        <v>-0.3137084989847612</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12">
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="2">
         <v>44715</v>
       </c>
       <c r="B186" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C186" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D186" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E186">
         <v>15</v>
@@ -7541,22 +6986,19 @@
       <c r="K186">
         <v>7.369600720526409</v>
       </c>
-      <c r="L186">
-        <v>-0.5119115182984846</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12">
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="2">
         <v>44716</v>
       </c>
       <c r="B187" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C187" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E187">
         <v>19</v>
@@ -7579,22 +7021,19 @@
       <c r="K187">
         <v>7.232010331664759</v>
       </c>
-      <c r="L187">
-        <v>0.2357168130620924</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12">
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="2">
         <v>44717</v>
       </c>
       <c r="B188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C188" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E188">
         <v>20</v>
@@ -7617,22 +7056,19 @@
       <c r="K188">
         <v>7.166265974133638</v>
       </c>
-      <c r="L188">
-        <v>0.5456223748210363</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12">
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="2">
         <v>44718</v>
       </c>
       <c r="B189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C189" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E189">
         <v>11</v>
@@ -7655,22 +7091,19 @@
       <c r="K189">
         <v>7.257707677160043</v>
       </c>
-      <c r="L189">
-        <v>-0.133898943924601</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12">
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="2">
         <v>44719</v>
       </c>
       <c r="B190" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C190" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E190">
         <v>15</v>
@@ -7693,22 +7126,19 @@
       <c r="K190">
         <v>7.373374309910049</v>
       </c>
-      <c r="L190">
-        <v>-0.2727482344598275</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12">
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="2">
         <v>44720</v>
       </c>
       <c r="B191" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C191" t="s">
+        <v>24</v>
+      </c>
+      <c r="D191" t="s">
         <v>25</v>
-      </c>
-      <c r="D191" t="s">
-        <v>26</v>
       </c>
       <c r="E191">
         <v>13</v>
@@ -7731,22 +7161,19 @@
       <c r="K191">
         <v>7.562681246721884</v>
       </c>
-      <c r="L191">
-        <v>0.09167065890310688</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12">
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="2">
         <v>44721</v>
       </c>
       <c r="B192" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C192" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D192" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E192">
         <v>11</v>
@@ -7769,22 +7196,19 @@
       <c r="K192">
         <v>7.555381944240273</v>
       </c>
-      <c r="L192">
-        <v>-0.3714459058449595</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12">
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>44722</v>
       </c>
       <c r="B193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C193" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D193" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E193">
         <v>19</v>
@@ -7807,22 +7231,19 @@
       <c r="K193">
         <v>7.523481312573497</v>
       </c>
-      <c r="L193">
-        <v>0.09407300777294836</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12">
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="2">
         <v>44723</v>
       </c>
       <c r="B194" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C194" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D194" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E194">
         <v>20</v>
@@ -7845,22 +7266,19 @@
       <c r="K194">
         <v>7.681099001536359</v>
       </c>
-      <c r="L194">
-        <v>0.04672704273229655</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12">
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="2">
         <v>44724</v>
       </c>
       <c r="B195" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C195" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D195" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E195">
         <v>14</v>
@@ -7883,22 +7301,19 @@
       <c r="K195">
         <v>7.427144133408616</v>
       </c>
-      <c r="L195">
-        <v>-0.1408000505052449</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12">
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="2">
         <v>44725</v>
       </c>
       <c r="B196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C196" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E196">
         <v>22</v>
@@ -7921,22 +7336,19 @@
       <c r="K196">
         <v>7.567862605463882</v>
       </c>
-      <c r="L196">
-        <v>0.2336485821336058</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12">
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="2">
         <v>44726</v>
       </c>
       <c r="B197" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E197">
         <v>16</v>
@@ -7959,22 +7371,19 @@
       <c r="K197">
         <v>7.647308832356238</v>
       </c>
-      <c r="L197">
-        <v>0.5851004245994105</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12">
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="2">
         <v>44727</v>
       </c>
       <c r="B198" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C198" t="s">
+        <v>24</v>
+      </c>
+      <c r="D198" t="s">
         <v>25</v>
-      </c>
-      <c r="D198" t="s">
-        <v>26</v>
       </c>
       <c r="E198">
         <v>9</v>
@@ -7997,22 +7406,19 @@
       <c r="K198">
         <v>7.620705086838262</v>
       </c>
-      <c r="L198">
-        <v>-0.1323265814067351</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12">
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="2">
         <v>44728</v>
       </c>
       <c r="B199" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D199" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E199">
         <v>20</v>
@@ -8035,22 +7441,19 @@
       <c r="K199">
         <v>7.6586995582683</v>
       </c>
-      <c r="L199">
-        <v>0.3924761201059574</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12">
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="2">
         <v>44729</v>
       </c>
       <c r="B200" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E200">
         <v>15</v>
@@ -8073,22 +7476,19 @@
       <c r="K200">
         <v>7.692569648067906</v>
       </c>
-      <c r="L200">
-        <v>-0.799123298490386</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12">
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" s="2">
         <v>44730</v>
       </c>
       <c r="B201" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C201" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D201" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E201">
         <v>16</v>
@@ -8111,22 +7511,19 @@
       <c r="K201">
         <v>7.395721608602045</v>
       </c>
-      <c r="L201">
-        <v>0.4509280077845457</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12">
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" s="2">
         <v>44731</v>
       </c>
       <c r="B202" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C202" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D202" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E202">
         <v>10</v>
@@ -8149,22 +7546,19 @@
       <c r="K202">
         <v>7.69484807238461</v>
       </c>
-      <c r="L202">
-        <v>0.1754167940912961</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12">
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" s="2">
         <v>44732</v>
       </c>
       <c r="B203" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C203" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D203" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E203">
         <v>15</v>
@@ -8187,22 +7581,19 @@
       <c r="K203">
         <v>7.543273346705446</v>
       </c>
-      <c r="L203">
-        <v>-0.3087854055771082</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12">
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>44733</v>
       </c>
       <c r="B204" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C204" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D204" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E204">
         <v>7</v>
@@ -8225,22 +7616,19 @@
       <c r="K204">
         <v>7.338888133838879</v>
       </c>
-      <c r="L204">
-        <v>0.1774768041015982</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12">
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>44734</v>
       </c>
       <c r="B205" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C205" t="s">
+        <v>24</v>
+      </c>
+      <c r="D205" t="s">
         <v>25</v>
-      </c>
-      <c r="D205" t="s">
-        <v>26</v>
       </c>
       <c r="E205">
         <v>17</v>
@@ -8263,22 +7651,19 @@
       <c r="K205">
         <v>7.065613363597717</v>
       </c>
-      <c r="L205">
-        <v>-0.4491045769648334</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12">
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>44735</v>
       </c>
       <c r="B206" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C206" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E206">
         <v>13</v>
@@ -8301,22 +7686,19 @@
       <c r="K206">
         <v>7.226209010100671</v>
       </c>
-      <c r="L206">
-        <v>0.7102379239865364</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12">
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>44736</v>
       </c>
       <c r="B207" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C207" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D207" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E207">
         <v>15</v>
@@ -8339,22 +7721,19 @@
       <c r="K207">
         <v>7.045776576879511</v>
       </c>
-      <c r="L207">
-        <v>-0.7561695474220347</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12">
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>44737</v>
       </c>
       <c r="B208" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C208" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D208" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E208">
         <v>16</v>
@@ -8377,22 +7756,19 @@
       <c r="K208">
         <v>6.763884908562435</v>
       </c>
-      <c r="L208">
-        <v>0.09167065890310688</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12">
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" s="2">
         <v>44738</v>
       </c>
       <c r="B209" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C209" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D209" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E209">
         <v>13</v>
@@ -8415,22 +7791,19 @@
       <c r="K209">
         <v>7.105786129481271</v>
       </c>
-      <c r="L209">
-        <v>-0.2773728980720112</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12">
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" s="2">
         <v>44739</v>
       </c>
       <c r="B210" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C210" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D210" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E210">
         <v>16</v>
@@ -8453,22 +7826,19 @@
       <c r="K210">
         <v>7.179307969504034</v>
       </c>
-      <c r="L210">
-        <v>-0.3814481110443104</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12">
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" s="2">
         <v>44740</v>
       </c>
       <c r="B211" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C211" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D211" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E211">
         <v>13</v>
@@ -8491,22 +7861,19 @@
       <c r="K211">
         <v>6.786716950605081</v>
       </c>
-      <c r="L211">
-        <v>0.1446763679235499</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12">
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" s="2">
         <v>44741</v>
       </c>
       <c r="B212" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C212" t="s">
+        <v>24</v>
+      </c>
+      <c r="D212" t="s">
         <v>25</v>
-      </c>
-      <c r="D212" t="s">
-        <v>26</v>
       </c>
       <c r="E212">
         <v>16</v>
@@ -8529,22 +7896,19 @@
       <c r="K212">
         <v>6.90875477931522</v>
       </c>
-      <c r="L212">
-        <v>-2.694339816495717</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12">
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" s="2">
         <v>44742</v>
       </c>
       <c r="B213" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C213" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D213" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E213">
         <v>8</v>
@@ -8566,9 +7930,6 @@
       </c>
       <c r="K213">
         <v>6.775366090936392</v>
-      </c>
-      <c r="L213">
-        <v>0.3162910558837151</v>
       </c>
     </row>
   </sheetData>
